--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,17 @@
     <sheet name="nF13fräs" sheetId="6" r:id="rId6"/>
     <sheet name="Vergl.Fäs" sheetId="7" r:id="rId7"/>
     <sheet name="FotosDiagramm" sheetId="8" r:id="rId8"/>
+    <sheet name="VerzugVorherProzess" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
   <si>
     <t>Nr/MP</t>
   </si>
@@ -290,6 +291,36 @@
   </si>
   <si>
     <t>Standardab fräs kont neu</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>Fxx</t>
+  </si>
+  <si>
+    <t>bieg</t>
+  </si>
+  <si>
+    <t>fräs</t>
+  </si>
+  <si>
+    <t>verzug</t>
+  </si>
+  <si>
+    <t>orientier</t>
+  </si>
+  <si>
+    <t>verz.Mittel</t>
+  </si>
+  <si>
+    <t>aussen</t>
+  </si>
+  <si>
+    <t>innen</t>
+  </si>
+  <si>
+    <t>Prozess/Diff.</t>
   </si>
 </sst>
 </file>
@@ -858,25 +889,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59280768"/>
-        <c:axId val="59704448"/>
+        <c:axId val="93692672"/>
+        <c:axId val="93694208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59280768"/>
+        <c:axId val="93692672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59704448"/>
+        <c:crossAx val="93694208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59704448"/>
+        <c:axId val="93694208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +915,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59280768"/>
+        <c:crossAx val="93692672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1026,25 +1057,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63076224"/>
-        <c:axId val="63077760"/>
+        <c:axId val="94350336"/>
+        <c:axId val="94360320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63076224"/>
+        <c:axId val="94350336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63077760"/>
+        <c:crossAx val="94360320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63077760"/>
+        <c:axId val="94360320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1083,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63076224"/>
+        <c:crossAx val="94350336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1194,25 +1225,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63098240"/>
-        <c:axId val="62653568"/>
+        <c:axId val="94245632"/>
+        <c:axId val="94247168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63098240"/>
+        <c:axId val="94245632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62653568"/>
+        <c:crossAx val="94247168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62653568"/>
+        <c:axId val="94247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1251,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63098240"/>
+        <c:crossAx val="94245632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,25 +1401,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62682240"/>
-        <c:axId val="62683776"/>
+        <c:axId val="94259456"/>
+        <c:axId val="94281728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62682240"/>
+        <c:axId val="94259456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62683776"/>
+        <c:crossAx val="94281728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62683776"/>
+        <c:axId val="94281728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1427,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62682240"/>
+        <c:crossAx val="94259456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,25 +1752,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63148800"/>
-        <c:axId val="63150336"/>
+        <c:axId val="94435200"/>
+        <c:axId val="94436736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63148800"/>
+        <c:axId val="94435200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63150336"/>
+        <c:crossAx val="94436736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63150336"/>
+        <c:axId val="94436736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,7 +1778,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63148800"/>
+        <c:crossAx val="94435200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1771,7 +1802,17 @@
   <c:lang val="de-DE"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16837842197099664"/>
+          <c:y val="4.5579602535763993E-2"/>
+          <c:w val="0.8111374067068432"/>
+          <c:h val="0.90209094406461898"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -1790,1539 +1831,6 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$6:$Y$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$6:$Y$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$19:$Y$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$8:$Y$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$8:$Y$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$20:$Y$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.10100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.000">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.39600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.251</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$10:$Y$10</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$10:$Y$10</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$21:$Y$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.48099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$12:$Y$12</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.03</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.04</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.1999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$12:$Y$12</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.03</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.04</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.1999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$22:$Y$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="68971904"/>
-        <c:axId val="68974080"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="68971904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68974080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="68974080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4.4000000000000004"/>
-          <c:min val="-1.1500000000000001"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>x = (+</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Δ)[</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68971904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.05"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.9677959979773177E-2"/>
-          <c:y val="5.6057509782556546E-2"/>
-          <c:w val="0.7541997158612056"/>
-          <c:h val="0.87413690782124787"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="diamond"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.24575126492151839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27095348212134901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19027611515899726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9841477024816312E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3597502097958335E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8335397241649171E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1834274809261667E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14628289103831021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26684117097313848</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18101759146848873</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27653637811516296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23988154971722386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12647030023727018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4899799195977301E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2606102108912703E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4809802816416617E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.881885347805227E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2016093147388629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19285664160335861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21902355076446389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12143332586888554</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15094352377104689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6235601391585134E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1867323637065369E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5526044491233284E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8099592482970492E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3308762874212805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11520576557209559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23059362751956444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21598915664790441</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$9:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.14475023861447475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15401298646542766</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7141747805092262E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6137289353275334E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.366028258614094E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1884410139143637E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6052030071259679E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14869962658785785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29006532839490162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40218187820672957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="68894720"/>
-        <c:axId val="68897024"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="68894720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68897024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="68897024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.42000000000000021"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" i="1"/>
-                  <a:t>Standardabweichung s [mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68894720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0000000000000005E-2"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" i="1"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" i="1"/>
-              <a:t>Messwerte (nach Fräsprozess) mit Fehlerrechnung nach DIN 1333</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.620147810471059E-2"/>
-          <c:y val="3.0020256969150932E-2"/>
-          <c:w val="0.8290598023688972"/>
-          <c:h val="0.94665457016300036"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3337,7 +1845,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
@@ -3430,52 +1938,52 @@
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="38100">
+              <a:ln w="44450">
                 <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Vergl.Fäs!$P$19:$Y$19</c:f>
               <c:numCache>
@@ -3513,7 +2021,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3530,7 +2038,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3545,7 +2053,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3638,52 +2146,52 @@
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="38100">
+              <a:ln w="44450">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Vergl.Fäs!$P$20:$Y$20</c:f>
               <c:numCache>
@@ -3721,7 +2229,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3738,7 +2246,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3846,52 +2354,52 @@
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="38100">
+              <a:ln w="44450">
                 <a:solidFill>
                   <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Vergl.Fäs!$P$21:$Y$21</c:f>
               <c:numCache>
@@ -3929,7 +2437,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3946,12 +2454,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="circle"/>
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
@@ -3961,7 +2469,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
@@ -4054,1022 +2562,7 @@
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$22:$Y$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="69108864"/>
-        <c:axId val="69110784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="69108864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" i="1"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" i="1" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" i="1"/>
-                  <a:t>1-10</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="@" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69110784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="69110784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4.5"/>
-          <c:min val="-1.1500000000000001"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Messwert</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" i="1" baseline="0">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>x = (±△)[mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69108864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" i="1"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" i="1"/>
-              <a:t>Auswertung Fräsprozess</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16621490495506241"/>
-          <c:y val="5.045414371632511E-2"/>
-          <c:w val="0.8251844782028509"/>
-          <c:h val="0.93082543949139263"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.24575126492151839</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.27095348212134901</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19027611515899726</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.9841477024816312E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.3597502097958335E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.8335397241649171E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3.1834274809261667E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.14628289103831021</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.26684117097313848</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.18101759146848873</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.24575126492151839</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.27095348212134901</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19027611515899726</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.9841477024816312E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.3597502097958335E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.8335397241649171E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3.1834274809261667E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.14628289103831021</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.26684117097313848</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.18101759146848873</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="41275">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$19:$Y$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.27653637811516296</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.23988154971722386</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.12647030023727018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.4899799195977301E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.2606102108912703E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.4809802816416617E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.881885347805227E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.2016093147388629</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.19285664160335861</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.21902355076446389</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.27653637811516296</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.23988154971722386</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.12647030023727018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.4899799195977301E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.2606102108912703E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.4809802816416617E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.881885347805227E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.2016093147388629</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.19285664160335861</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.21902355076446389</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="41275">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$20:$Y$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.10100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.000">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.39600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.251</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.12143332586888554</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.15094352377104689</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.6235601391585134E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.1867323637065369E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.5526044491233284E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.8099592482970492E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3.3308762874212805E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.11520576557209559</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.23059362751956444</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.21598915664790441</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.12143332586888554</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.15094352377104689</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.6235601391585134E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.1867323637065369E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.5526044491233284E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.8099592482970492E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3.3308762874212805E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.11520576557209559</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.23059362751956444</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.21598915664790441</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="41275">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$21:$Y$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.48099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$9:$M$9</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.14475023861447475</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.15401298646542766</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.7141747805092262E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.6137289353275334E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>6.366028258614094E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.1884410139143637E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4.6052030071259679E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.14869962658785785</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.29006532839490162</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.40218187820672957</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$D$9:$M$9</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.14475023861447475</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.15401298646542766</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.7141747805092262E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.6137289353275334E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>6.366028258614094E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.1884410139143637E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4.6052030071259679E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.14869962658785785</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.29006532839490162</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.40218187820672957</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="41275">
+              <a:ln w="44450">
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
@@ -5082,34 +2575,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5155,11 +2648,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59008512"/>
-        <c:axId val="104542208"/>
+        <c:axId val="94756864"/>
+        <c:axId val="94758784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59008512"/>
+        <c:axId val="94756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5171,16 +2664,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="1"/>
+                  <a:defRPr sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1" i="1"/>
+                  <a:rPr lang="en-US" sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Messpunkte</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46203360753090222"/>
+              <c:y val="0.92798550519617951"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -5188,22 +2692,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="1"/>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104542208"/>
+        <c:crossAx val="94758784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104542208"/>
+        <c:axId val="94758784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.5"/>
+          <c:max val="4.4000000000000004"/>
+          <c:min val="-1.1500000000000001"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -5213,16 +2720,31 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" i="1"/>
+                  <a:defRPr sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1"/>
-                  <a:t>Messwert ± Standardabweichung [mm]</a:t>
+                  <a:rPr lang="en-US" sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>x = (+</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ)[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -5231,662 +2753,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="1"/>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59008512"/>
+        <c:crossAx val="94756864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="8"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45909205793720231"/>
-          <c:y val="0.16432296777890937"/>
-          <c:w val="9.6936115308818724E-2"/>
-          <c:h val="0.20988907665168904"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1" i="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fräsprozess Standardabweichung</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1038408540278619"/>
-          <c:y val="0.20808247422680412"/>
-          <c:w val="0.79970876236624266"/>
-          <c:h val="0.72512249370890491"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.24575126492151839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27095348212134901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19027611515899726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9841477024816312E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3597502097958335E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8335397241649171E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1834274809261667E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14628289103831021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26684117097313848</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18101759146848873</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27653637811516296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23988154971722386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12647030023727018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4899799195977301E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2606102108912703E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4809802816416617E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.881885347805227E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2016093147388629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19285664160335861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21902355076446389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12143332586888554</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15094352377104689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6235601391585134E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1867323637065369E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5526044491233284E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8099592482970492E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3308762874212805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11520576557209559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23059362751956444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21598915664790441</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$9:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.14475023861447475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15401298646542766</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7141747805092262E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6137289353275334E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.366028258614094E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1884410139143637E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6052030071259679E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14869962658785785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29006532839490162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40218187820672957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="83741696"/>
-        <c:axId val="84017920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="83741696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1" i="1"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="84017920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84017920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1"/>
-                  <a:t>Standardabweichung s [mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83741696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="4"/>
         <c:delete val="1"/>
@@ -5907,10 +2788,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3142183425154923"/>
-          <c:y val="0.13249949941824279"/>
-          <c:w val="6.9206793862305674E-2"/>
-          <c:h val="0.22546851746624452"/>
+          <c:x val="0.31301309403363686"/>
+          <c:y val="0.10642750373692079"/>
+          <c:w val="0.38106394521913822"/>
+          <c:h val="2.9881778086496554E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -5918,7 +2799,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="1"/>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
         </a:p>
@@ -5928,576 +2811,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.9677959979773177E-2"/>
-          <c:y val="5.6057509782556546E-2"/>
-          <c:w val="0.7541997158612056"/>
-          <c:h val="0.87413690782124764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.24575126492151839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27095348212134901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19027611515899726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9841477024816312E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3597502097958335E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8335397241649171E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1834274809261667E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14628289103831021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26684117097313848</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18101759146848873</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27653637811516296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23988154971722386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12647030023727018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4899799195977301E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2606102108912703E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4809802816416617E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.881885347805227E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2016093147388629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19285664160335861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21902355076446389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12143332586888554</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15094352377104689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6235601391585134E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1867323637065369E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5526044491233284E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8099592482970492E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3308762874212805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11520576557209559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23059362751956444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21598915664790441</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$D$9:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.14475023861447475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15401298646542766</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7141747805092262E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6137289353275334E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.366028258614094E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1884410139143637E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6052030071259679E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14869962658785785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29006532839490162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40218187820672957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="69066112"/>
-        <c:axId val="69273472"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="69066112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69273472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69273472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.42000000000000032"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" i="1"/>
-                  <a:t>Standardabweichung s [mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69066112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0000000000000005E-2"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6626,25 +2940,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59725312"/>
-        <c:axId val="59726848"/>
+        <c:axId val="93706496"/>
+        <c:axId val="93859840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59725312"/>
+        <c:axId val="93706496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59726848"/>
+        <c:crossAx val="93859840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59726848"/>
+        <c:axId val="93859840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6652,7 +2966,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59725312"/>
+        <c:crossAx val="93706496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6666,936 +2980,6 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$6:$Y$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$6:$Y$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$19:$Y$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$8:$Y$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$8:$Y$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$20:$Y$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.10100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.000">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.39600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.251</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$10:$Y$10</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$10:$Y$10</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.6E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$21:$Y$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.48099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$O$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$12:$Y$12</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.03</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.04</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.1999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergl.Fäs!$P$12:$Y$12</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.2999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.03</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.04</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.1999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Vergl.Fäs!$P$18:$Y$18</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vergl.Fäs!$P$22:$Y$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="69326336"/>
-        <c:axId val="69328256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="69326336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" i="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69328256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69328256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4.4000000000000004"/>
-          <c:min val="-1.1500000000000001"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>x = (+</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Δ)[</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69326336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7732,25 +3116,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59763712"/>
-        <c:axId val="60166912"/>
+        <c:axId val="93884416"/>
+        <c:axId val="93885952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59763712"/>
+        <c:axId val="93884416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60166912"/>
+        <c:crossAx val="93885952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60166912"/>
+        <c:axId val="93885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,7 +3142,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59763712"/>
+        <c:crossAx val="93884416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7900,25 +3284,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="60199680"/>
-        <c:axId val="60201216"/>
+        <c:axId val="93726208"/>
+        <c:axId val="93727744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60199680"/>
+        <c:axId val="93726208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60201216"/>
+        <c:crossAx val="93727744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60201216"/>
+        <c:axId val="93727744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7926,7 +3310,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60199680"/>
+        <c:crossAx val="93726208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8068,25 +3452,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="60213504"/>
-        <c:axId val="62595072"/>
+        <c:axId val="93735936"/>
+        <c:axId val="93750016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60213504"/>
+        <c:axId val="93735936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62595072"/>
+        <c:crossAx val="93750016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62595072"/>
+        <c:axId val="93750016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8094,7 +3478,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60213504"/>
+        <c:crossAx val="93735936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8236,25 +3620,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62627840"/>
-        <c:axId val="62629376"/>
+        <c:axId val="93778688"/>
+        <c:axId val="93780224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62627840"/>
+        <c:axId val="93778688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62629376"/>
+        <c:crossAx val="93780224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62629376"/>
+        <c:axId val="93780224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8262,7 +3646,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62627840"/>
+        <c:crossAx val="93778688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8404,25 +3788,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62719488"/>
-        <c:axId val="62721024"/>
+        <c:axId val="93939968"/>
+        <c:axId val="93945856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62719488"/>
+        <c:axId val="93939968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62721024"/>
+        <c:crossAx val="93945856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62721024"/>
+        <c:axId val="93945856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8430,7 +3814,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62719488"/>
+        <c:crossAx val="93939968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8580,25 +3964,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="62745600"/>
-        <c:axId val="62759680"/>
+        <c:axId val="93966336"/>
+        <c:axId val="93967872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62745600"/>
+        <c:axId val="93966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62759680"/>
+        <c:crossAx val="93967872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62759680"/>
+        <c:axId val="93967872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8606,7 +3990,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62745600"/>
+        <c:crossAx val="93966336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8748,25 +4132,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63058304"/>
-        <c:axId val="63059840"/>
+        <c:axId val="94328320"/>
+        <c:axId val="94329856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63058304"/>
+        <c:axId val="94328320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63059840"/>
+        <c:crossAx val="94329856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63059840"/>
+        <c:axId val="94329856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8774,7 +4158,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63058304"/>
+        <c:crossAx val="94328320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9197,201 +4581,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagramm 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9404,7 +4603,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11984,7 +7183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E30" sqref="E30:N31"/>
     </sheetView>
   </sheetViews>
@@ -15682,7 +10881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G24:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="C42" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
@@ -15709,7 +10908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -17676,8 +12875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17700,34 +12899,34 @@
         <v>33</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>33</v>
@@ -18036,6 +13235,9 @@
       </c>
     </row>
     <row r="10" spans="3:25">
+      <c r="C10" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="O10" s="1" t="s">
         <v>55</v>
       </c>
@@ -18071,6 +13273,39 @@
       </c>
     </row>
     <row r="11" spans="3:25">
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0.246</v>
+      </c>
+      <c r="E11">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.19</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.18099999999999999</v>
+      </c>
       <c r="O11" s="12" t="s">
         <v>52</v>
       </c>
@@ -18106,6 +13341,39 @@
       </c>
     </row>
     <row r="12" spans="3:25">
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0.24</v>
+      </c>
+      <c r="F12">
+        <v>0.126</v>
+      </c>
+      <c r="G12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.193</v>
+      </c>
+      <c r="M12">
+        <v>0.219</v>
+      </c>
       <c r="O12" s="1" t="s">
         <v>27</v>
       </c>
@@ -18141,6 +13409,39 @@
       </c>
     </row>
     <row r="13" spans="3:25">
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>0.121</v>
+      </c>
+      <c r="E13">
+        <v>0.151</v>
+      </c>
+      <c r="F13">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.115</v>
+      </c>
+      <c r="L13">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.216</v>
+      </c>
       <c r="O13" s="1" t="s">
         <v>52</v>
       </c>
@@ -18173,6 +13474,41 @@
       </c>
       <c r="Y13" s="1">
         <v>3.76</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25">
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.154</v>
+      </c>
+      <c r="F14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J14">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="17" spans="5:25">
@@ -18188,34 +13524,34 @@
         <v>33</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="S18" s="26" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="U18" s="26" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="V18" s="26" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="X18" s="26" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="5:25">
@@ -18370,7 +13706,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18378,8 +13713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18387,4 +13722,708 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="2:13">
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>-0.78</v>
+      </c>
+      <c r="E6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>-0.33</v>
+      </c>
+      <c r="G6">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.127</v>
+      </c>
+      <c r="I6">
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="J6">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="K6">
+        <v>-0.73</v>
+      </c>
+      <c r="L6">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1">
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.13</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0.38</v>
+      </c>
+      <c r="F7" s="38">
+        <v>-0.12</v>
+      </c>
+      <c r="G7" s="38">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="H7" s="38">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="I7" s="38">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="J7" s="38">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="K7" s="38">
+        <v>-1.06</v>
+      </c>
+      <c r="L7" s="38">
+        <v>-0.38</v>
+      </c>
+      <c r="M7" s="39">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1">
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1">
+        <f>0.78+0.13</f>
+        <v>0.91</v>
+      </c>
+      <c r="E8" s="1">
+        <f>0.35-0.026</f>
+        <v>0.32399999999999995</v>
+      </c>
+      <c r="F8" s="1">
+        <f>0.33-0.12</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <f>0.074-0.014</f>
+        <v>0.06</v>
+      </c>
+      <c r="H8" s="1">
+        <f>0.231-0.127</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f>0.274-0.229</f>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>0.265-0.232</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f>1.06-0.73</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="L8" s="1">
+        <f>0.38+0.209</f>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M8" s="1">
+        <f>0.43-0.2</f>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1">
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1">
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="1">
+        <f>AVERAGE(D8:M8)</f>
+        <v>0.28349999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>0.81</v>
+      </c>
+      <c r="E11">
+        <v>0.33</v>
+      </c>
+      <c r="F11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G11">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="I11">
+        <v>-0.375</v>
+      </c>
+      <c r="J11">
+        <v>-0.28699999999999998</v>
+      </c>
+      <c r="K11">
+        <v>-0.43</v>
+      </c>
+      <c r="L11">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="1" customFormat="1">
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="H12" s="30">
+        <v>-0.34</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-0.251</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-0.84</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="M12" s="31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="1" customFormat="1">
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
+        <f>1.27-0.81</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="E13" s="1">
+        <f>0.62-0.33</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <f>0.03+0.14</f>
+        <v>0.17</v>
+      </c>
+      <c r="G13" s="1">
+        <f>0.101-0.022</f>
+        <v>7.9000000000000015E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f>0.34-0.268</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <f>0.396-0.375</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <f>0.287-0.251</f>
+        <v>3.5999999999999976E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f>0.84-0.43</f>
+        <v>0.41</v>
+      </c>
+      <c r="L13" s="1">
+        <f>0.632+0.01</f>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <f>1.19-0.7</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" s="1" customFormat="1">
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1">
+        <f>AVERAGE(D13:M13)</f>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>2.44</v>
+      </c>
+      <c r="E16">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F16">
+        <v>0.215</v>
+      </c>
+      <c r="G16">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="H16">
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="I16">
+        <v>-0.51</v>
+      </c>
+      <c r="J16">
+        <v>-0.3</v>
+      </c>
+      <c r="K16">
+        <v>-0.17</v>
+      </c>
+      <c r="L16">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="M16">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1">
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-0.439</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1">
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1">
+        <f>2.54-2.44</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="E18" s="1">
+        <f>1.11-0.935</f>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="F18" s="1">
+        <f>0.31-0.215</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <f>0.116-0.049</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <f>0.439-0.421</f>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <f>0.51-0.481</f>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <f>0.3-0.234</f>
+        <v>6.5999999999999975E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <f>0.56-0.17</f>
+        <v>0.39</v>
+      </c>
+      <c r="L18" s="1">
+        <f>1.197-0.46</f>
+        <v>0.7370000000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <f>2.84-1.98</f>
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1">
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1">
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="1">
+        <f>AVERAGE(D18:M18)</f>
+        <v>0.25369999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>2.524</v>
+      </c>
+      <c r="E21">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G21">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="H21">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I21">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="J21">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="K21">
+        <v>-0.11</v>
+      </c>
+      <c r="L21">
+        <v>1.3</v>
+      </c>
+      <c r="M21">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1">
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-0.37</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-0.35</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-0.151</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" s="1" customFormat="1">
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1">
+        <f>4.33-2.524</f>
+        <v>1.806</v>
+      </c>
+      <c r="E23" s="1">
+        <f>1.49-0.856</f>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <f>0.45-0.137</f>
+        <v>0.313</v>
+      </c>
+      <c r="G23" s="1">
+        <f>0.071-0.061</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H23" s="1">
+        <f>0.37-0.28</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <f>0.35-0.331</f>
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <f>0.251-0.151</f>
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="1">
+        <f>0.31-0.11</f>
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="1">
+        <f>1.3-1.08</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="M23" s="1">
+        <f>3.8-3.76</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1">
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(D23:M23)</f>
+        <v>0.34320000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
@@ -889,25 +889,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93692672"/>
-        <c:axId val="93694208"/>
+        <c:axId val="57278848"/>
+        <c:axId val="57280384"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93692672"/>
+        <c:axId val="57278848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93694208"/>
+        <c:crossAx val="57280384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93694208"/>
+        <c:axId val="57280384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +915,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93692672"/>
+        <c:crossAx val="57278848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1057,25 +1057,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94350336"/>
-        <c:axId val="94360320"/>
+        <c:axId val="118939648"/>
+        <c:axId val="118951936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94350336"/>
+        <c:axId val="118939648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94360320"/>
+        <c:crossAx val="118951936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94360320"/>
+        <c:axId val="118951936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1083,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94350336"/>
+        <c:crossAx val="118939648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,25 +1225,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94245632"/>
-        <c:axId val="94247168"/>
+        <c:axId val="119964800"/>
+        <c:axId val="119966336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94245632"/>
+        <c:axId val="119964800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94247168"/>
+        <c:crossAx val="119966336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94247168"/>
+        <c:axId val="119966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1251,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94245632"/>
+        <c:crossAx val="119964800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,25 +1401,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94259456"/>
-        <c:axId val="94281728"/>
+        <c:axId val="120593024"/>
+        <c:axId val="50033024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94259456"/>
+        <c:axId val="120593024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94281728"/>
+        <c:crossAx val="50033024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94281728"/>
+        <c:axId val="50033024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1427,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94259456"/>
+        <c:crossAx val="120593024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,25 +1752,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94435200"/>
-        <c:axId val="94436736"/>
+        <c:axId val="55163136"/>
+        <c:axId val="55164928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94435200"/>
+        <c:axId val="55163136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94436736"/>
+        <c:crossAx val="55164928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94436736"/>
+        <c:axId val="55164928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1778,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94435200"/>
+        <c:crossAx val="55163136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,7 +1808,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16837842197099664"/>
-          <c:y val="4.5579602535763993E-2"/>
+          <c:y val="4.5579602535763979E-2"/>
           <c:w val="0.8111374067068432"/>
           <c:h val="0.90209094406461898"/>
         </c:manualLayout>
@@ -2648,11 +2648,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94756864"/>
-        <c:axId val="94758784"/>
+        <c:axId val="56664448"/>
+        <c:axId val="56666368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94756864"/>
+        <c:axId val="56664448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2682,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.46203360753090222"/>
-              <c:y val="0.92798550519617951"/>
+              <c:y val="0.92798550519617962"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2699,14 +2699,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94758784"/>
+        <c:crossAx val="56666368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94758784"/>
+        <c:axId val="56666368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.4000000000000004"/>
@@ -2728,23 +2728,12 @@
                   <a:rPr lang="en-US" sz="1800" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>x = (+</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1800" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Δ)[</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" i="1">
-                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>mm]</a:t>
+                  <a:t>x = ( ± ∆) [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2760,7 +2749,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94756864"/>
+        <c:crossAx val="56664448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2790,8 +2779,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.31301309403363686"/>
           <c:y val="0.10642750373692079"/>
-          <c:w val="0.38106394521913822"/>
-          <c:h val="2.9881778086496554E-2"/>
+          <c:w val="0.38106394521913828"/>
+          <c:h val="2.9881778086496565E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2940,25 +2929,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93706496"/>
-        <c:axId val="93859840"/>
+        <c:axId val="75772288"/>
+        <c:axId val="75773824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93706496"/>
+        <c:axId val="75772288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93859840"/>
+        <c:crossAx val="75773824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93859840"/>
+        <c:axId val="75773824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2955,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93706496"/>
+        <c:crossAx val="75772288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3116,25 +3105,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93884416"/>
-        <c:axId val="93885952"/>
+        <c:axId val="82243968"/>
+        <c:axId val="82245504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93884416"/>
+        <c:axId val="82243968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93885952"/>
+        <c:crossAx val="82245504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93885952"/>
+        <c:axId val="82245504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3131,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93884416"/>
+        <c:crossAx val="82243968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3284,25 +3273,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93726208"/>
-        <c:axId val="93727744"/>
+        <c:axId val="90720128"/>
+        <c:axId val="92573696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93726208"/>
+        <c:axId val="90720128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93727744"/>
+        <c:crossAx val="92573696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93727744"/>
+        <c:axId val="92573696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,7 +3299,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93726208"/>
+        <c:crossAx val="90720128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3452,25 +3441,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93735936"/>
-        <c:axId val="93750016"/>
+        <c:axId val="93954432"/>
+        <c:axId val="93960832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93735936"/>
+        <c:axId val="93954432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93750016"/>
+        <c:crossAx val="93960832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93750016"/>
+        <c:axId val="93960832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +3467,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93735936"/>
+        <c:crossAx val="93954432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3620,25 +3609,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93778688"/>
-        <c:axId val="93780224"/>
+        <c:axId val="94428544"/>
+        <c:axId val="94911104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93778688"/>
+        <c:axId val="94428544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93780224"/>
+        <c:crossAx val="94911104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93780224"/>
+        <c:axId val="94911104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3635,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93778688"/>
+        <c:crossAx val="94428544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3788,25 +3777,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93939968"/>
-        <c:axId val="93945856"/>
+        <c:axId val="95276032"/>
+        <c:axId val="106914944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93939968"/>
+        <c:axId val="95276032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93945856"/>
+        <c:crossAx val="106914944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93945856"/>
+        <c:axId val="106914944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,7 +3803,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93939968"/>
+        <c:crossAx val="95276032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3964,25 +3953,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93966336"/>
-        <c:axId val="93967872"/>
+        <c:axId val="116308992"/>
+        <c:axId val="118330112"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93966336"/>
+        <c:axId val="116308992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93967872"/>
+        <c:crossAx val="118330112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93967872"/>
+        <c:axId val="118330112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3990,7 +3979,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93966336"/>
+        <c:crossAx val="116308992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4132,25 +4121,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94328320"/>
-        <c:axId val="94329856"/>
+        <c:axId val="118449664"/>
+        <c:axId val="118507392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94328320"/>
+        <c:axId val="118449664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94329856"/>
+        <c:crossAx val="118507392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94329856"/>
+        <c:axId val="118507392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4158,7 +4147,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94328320"/>
+        <c:crossAx val="118449664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13713,7 +13702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -13728,7 +13717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>

--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -4,28 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
     <sheet name="nF17fräs" sheetId="3" r:id="rId2"/>
     <sheet name="nF18Fräs" sheetId="4" r:id="rId3"/>
-    <sheet name="Gegenüberstelungen FräsBieg" sheetId="2" r:id="rId4"/>
-    <sheet name="LaborVergleich" sheetId="5" r:id="rId5"/>
-    <sheet name="nF13fräs" sheetId="6" r:id="rId6"/>
-    <sheet name="Vergl.Fäs" sheetId="7" r:id="rId7"/>
-    <sheet name="FotosDiagramm" sheetId="8" r:id="rId8"/>
-    <sheet name="VerzugVorherProzess" sheetId="9" r:id="rId9"/>
+    <sheet name="nF13fräs" sheetId="6" r:id="rId4"/>
+    <sheet name="Vergl.Fäs" sheetId="7" r:id="rId5"/>
+    <sheet name="FotosDiagramm" sheetId="8" r:id="rId6"/>
+    <sheet name="VerzugVorherProzess" sheetId="9" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="79">
   <si>
     <t>Nr/MP</t>
   </si>
@@ -191,15 +186,6 @@
     <t xml:space="preserve">F18 </t>
   </si>
   <si>
-    <t xml:space="preserve">Vergleich Standardabweichung Kontur fräs </t>
-  </si>
-  <si>
-    <t>Frästteile</t>
-  </si>
-  <si>
-    <t>Biegeteile</t>
-  </si>
-  <si>
     <t>nF13 Fräs Kontur aussen</t>
   </si>
   <si>
@@ -322,6 +308,36 @@
   <si>
     <t>Prozess/Diff.</t>
   </si>
+  <si>
+    <t>mittger</t>
+  </si>
+  <si>
+    <t>F13pos</t>
+  </si>
+  <si>
+    <t>F13neg</t>
+  </si>
+  <si>
+    <t>Fxxpos</t>
+  </si>
+  <si>
+    <t>Fxxneg</t>
+  </si>
+  <si>
+    <t>F17pos</t>
+  </si>
+  <si>
+    <t>F17neg</t>
+  </si>
+  <si>
+    <t>F18pos</t>
+  </si>
+  <si>
+    <t>F18neg</t>
+  </si>
+  <si>
+    <t>offset Werte zu Vorprozess</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +347,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,47 +409,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -664,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -679,11 +654,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -692,8 +662,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -769,799 +739,201 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nFxx Kontur Aussen Mittelw.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]nFxxKonturAussen!$C$30</c:f>
+              <c:f>Vergl.Fäs!$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mittelw</c:v>
+                  <c:v>F13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$60:$N$60</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.24575126492151839</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27095348212134901</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19027611515899726</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9841477024816312E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3597502097958335E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.8335397241649171E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1834274809261667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14628289103831021</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.26684117097313848</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.18101759146848873</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$60:$N$60</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.24575126492151839</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27095348212134901</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19027611515899726</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9841477024816312E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3597502097958335E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.8335397241649171E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1834274809261667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14628289103831021</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.26684117097313848</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.18101759146848873</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>[1]nFxxKonturAussen!$D$6:$M$6</c:f>
+              <c:f>Vergl.Fäs!$E$48:$N$48</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]nFxxKonturAussen!$D$30:$M$30</c:f>
+              <c:f>Vergl.Fäs!$E$49:$N$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81049999999999989</c:v>
+                  <c:v>0.12600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.13750000000000001</c:v>
+                  <c:v>-0.10950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1500000000000009E-2</c:v>
+                  <c:v>-7.4000000000000024E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.26750000000000002</c:v>
+                  <c:v>-0.23100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.3745</c:v>
+                  <c:v>-0.27350000000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.28700000000000003</c:v>
+                  <c:v>-0.23149999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.42800000000000005</c:v>
+                  <c:v>-1.0625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63150000000000006</c:v>
+                  <c:v>-0.37600000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="57278848"/>
-        <c:axId val="57280384"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="57278848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57280384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="57280384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57278848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nF17 Kontur Standardab</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]nF17 KonturAussen'!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardab.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]nF17 KonturAussen'!$E$5:$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]nF17 KonturAussen'!$E$30:$N$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.15118479455705683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7766596212438205E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3324560249003474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3330200448672081E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6693837501494849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.922169826551564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5423836644690757E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5874189537269287E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6501047964198518E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10868956275849763</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="118939648"/>
-        <c:axId val="118951936"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="118939648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118951936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="118951936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118939648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>F18 Kontur Mittelw</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]F18 Kontur aussen'!$D$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mittelwert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]F18 Kontur aussen'!$E$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]F18 Kontur aussen'!$E$28:$N$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.5235000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85550000000000015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.1000000000000019E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.27749999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.33100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.25649999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.11200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2879999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8039999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="119964800"/>
-        <c:axId val="119966336"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="119964800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119966336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="119966336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119964800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>F18 Kontur Standardab</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.19482633420822398"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]F18 Kontur aussen'!$D$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardab.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]F18 Kontur aussen'!$E$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]F18 Kontur aussen'!$E$27:$N$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.3437124883263222E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5758694194927144E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5729244987382724E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0249223594996199E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5092828567889578E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0509907819926555E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.661123624969116E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3627203715325875E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19771324264143297</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19773453762158261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="120593024"/>
-        <c:axId val="50033024"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="120593024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50033024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50033024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120593024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Vergleich Standardabw. Fräs Kontur</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>LaborVergleich!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>LaborVergleich!$D$4:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>LaborVergleich!$D$5:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27653637811516296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23988154971722386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12647030023727018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4899799195977301E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.260610210891271E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4809802816417564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.881885347805227E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2016093147388629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19285664160335861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21902355076446389</c:v>
+                  <c:v>-0.42899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,88 +944,191 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>LaborVergleich!$C$6</c:f>
+              <c:f>Vergl.Fäs!$D$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F17</c:v>
+                  <c:v>Fxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$61:$N$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.27653637811516296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23988154971722386</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12647030023727018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4899799195977301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.2606102108912703E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4809802816416617E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.881885347805227E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.2016093147388629</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19285664160335861</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21902355076446389</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$61:$N$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.27653637811516296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23988154971722386</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12647030023727018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4899799195977301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.2606102108912703E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4809802816416617E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.881885347805227E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.2016093147388629</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19285664160335861</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21902355076446389</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>LaborVergleich!$D$4:$M$4</c:f>
+              <c:f>Vergl.Fäs!$E$48:$N$48</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LaborVergleich!$D$6:$M$6</c:f>
+              <c:f>Vergl.Fäs!$E$50:$N$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12143332586888243</c:v>
+                  <c:v>1.2725000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15094352377104689</c:v>
+                  <c:v>0.6180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6235601391585134E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1867323637065369E-2</c:v>
+                  <c:v>-0.10100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5526044491230367E-2</c:v>
+                  <c:v>-0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8099592482970748E-2</c:v>
+                  <c:v>-0.39549999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3308762874212805E-2</c:v>
+                  <c:v>-0.25100000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11520576557209559</c:v>
+                  <c:v>-0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23059362751956444</c:v>
+                  <c:v>-1.3999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21598915664790441</c:v>
+                  <c:v>0.7034999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,140 +1139,542 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>LaborVergleich!$C$7</c:f>
+              <c:f>Vergl.Fäs!$D$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F18 </c:v>
+                  <c:v>F17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$62:$N$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.12143332586888554</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15094352377104689</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6235601391585134E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1867323637065369E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5526044491233284E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8099592482970492E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3308762874212805E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11520576557209559</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23059362751956444</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21598915664790441</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$62:$N$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.12143332586888554</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15094352377104689</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6235601391585134E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1867323637065369E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5526044491233284E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8099592482970492E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3308762874212805E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11520576557209559</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23059362751956444</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21598915664790441</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>LaborVergleich!$D$4:$M$4</c:f>
+              <c:f>Vergl.Fäs!$E$48:$N$48</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LaborVergleich!$D$7:$M$7</c:f>
+              <c:f>Vergl.Fäs!$E$51:$N$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14475023861447461</c:v>
+                  <c:v>2.5425000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15401298646542738</c:v>
+                  <c:v>1.1055000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7141747805092262E-2</c:v>
+                  <c:v>0.30550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6137289353275334E-2</c:v>
+                  <c:v>-0.11550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.366028258614094E-2</c:v>
+                  <c:v>-0.43900000000000017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1884410139143637E-2</c:v>
+                  <c:v>-0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6052030071259679E-2</c:v>
+                  <c:v>-0.23399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14869962658785785</c:v>
+                  <c:v>-0.5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29006532839490162</c:v>
+                  <c:v>0.45549999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40218187820672957</c:v>
+                  <c:v>1.9775000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="55163136"/>
-        <c:axId val="55164928"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$63:$N$63</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14475023861447475</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15401298646542766</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7141747805092262E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6137289353275334E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.366028258614094E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1884410139143637E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6052030071259679E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14869962658785785</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29006532839490162</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.40218187820672957</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergl.Fäs!$E$63:$N$63</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14475023861447475</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15401298646542766</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7141747805092262E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6137289353275334E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.366028258614094E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1884410139143637E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6052030071259679E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14869962658785785</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29006532839490162</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.40218187820672957</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$E$48:$N$48</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$E$52:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.1000000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.34900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.31200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7634999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="56586240"/>
+        <c:axId val="56588544"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="55163136"/>
+        <c:axId val="56586240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39289673742238546"/>
+              <c:y val="0.84672855687370263"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55164928"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56588544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55164928"/>
+        <c:axId val="56588544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>x = ( ± s) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55163136"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56586240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2800010192900646"/>
+          <c:y val="0.1104935923867747"/>
+          <c:w val="0.38127190411878131"/>
+          <c:h val="0.17926056859554321"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1808,7 +1685,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16837842197099664"/>
-          <c:y val="4.5579602535763979E-2"/>
+          <c:y val="4.5579602535763965E-2"/>
           <c:w val="0.8111374067068432"/>
           <c:h val="0.90209094406461898"/>
         </c:manualLayout>
@@ -2648,11 +2525,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56664448"/>
-        <c:axId val="56666368"/>
+        <c:axId val="59848192"/>
+        <c:axId val="59850112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56664448"/>
+        <c:axId val="59848192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,14 +2576,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56666368"/>
+        <c:crossAx val="59850112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56666368"/>
+        <c:axId val="59850112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.4000000000000004"/>
@@ -2733,7 +2610,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2749,7 +2625,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56664448"/>
+        <c:crossAx val="59848192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2779,8 +2655,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.31301309403363686"/>
           <c:y val="0.10642750373692079"/>
-          <c:w val="0.38106394521913828"/>
-          <c:h val="2.9881778086496565E-2"/>
+          <c:w val="0.38106394521913844"/>
+          <c:h val="2.9881778086496596E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2806,345 +2682,851 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nFxx  Fräs Kontur Mittelw.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
     <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.720321426596392E-2"/>
+          <c:y val="4.6733663446708366E-2"/>
+          <c:w val="0.79858276224386049"/>
+          <c:h val="0.93507298429801533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nFxxFräs!$D$26</c:f>
+              <c:f>VerzugVorherProzess!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mittlelw.</c:v>
+                  <c:v>F13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$68:$M$68</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.24575126492151839</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27095348212134901</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19027611515899726</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9841477024816312E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3597502097958335E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.8335397241649171E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1834274809261667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14628289103831021</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.26684117097313848</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.18101759146848873</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$68:$M$68</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.24575126492151839</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27095348212134901</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19027611515899726</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9841477024816312E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3597502097958335E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.8335397241649171E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1834274809261667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14628289103831021</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.26684117097313848</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.18101759146848873</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>nFxxFräs!$E$5:$N$5</c:f>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nFxxFräs!$E$26:$N$26</c:f>
+              <c:f>VerzugVorherProzess!$D$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2725000000000002</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6180000000000001</c:v>
+                  <c:v>0.32400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10100000000000002</c:v>
+                  <c:v>-0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.33999999999999997</c:v>
+                  <c:v>-0.104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.39549999999999996</c:v>
+                  <c:v>-4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.25100000000000006</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.83599999999999997</c:v>
+                  <c:v>-0.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3999999999999995E-2</c:v>
+                  <c:v>-0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7034999999999999</c:v>
+                  <c:v>-0.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="75772288"/>
-        <c:axId val="75773824"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$69:$M$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.27653637811516296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23988154971722386</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12647030023727018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4899799195977301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.2606102108912703E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4809802816416617E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.881885347805227E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.2016093147388629</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19285664160335861</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21902355076446389</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$69:$M$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.27653637811516296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23988154971722386</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12647030023727018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4899799195977301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.2606102108912703E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4809802816416617E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.881885347805227E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.2016093147388629</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19285664160335861</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21902355076446389</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$70:$M$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.12143332586888554</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15094352377104689</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6235601391585134E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1867323637065369E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5526044491233284E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8099592482970492E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3308762874212805E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11520576557209559</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23059362751956444</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21598915664790441</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$70:$M$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.12143332586888554</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15094352377104689</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6235601391585134E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1867323637065369E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5526044491233284E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8099592482970492E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3308762874212805E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11520576557209559</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23059362751956444</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.21598915664790441</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$71:$M$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14475023861447475</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15401298646542766</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7141747805092262E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6137289353275334E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.366028258614094E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1884410139143637E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6052030071259679E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14869962658785785</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29006532839490162</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.40218187820672957</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>VerzugVorherProzess!$D$71:$M$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14475023861447475</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15401298646542766</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7141747805092262E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6137289353275334E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.366028258614094E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.1884410139143637E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6052030071259679E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14869962658785785</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29006532839490162</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.40218187820672957</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$34:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="62357504"/>
+        <c:axId val="62359040"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="75772288"/>
+        <c:axId val="62357504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75773824"/>
+        <c:crossAx val="62359040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75773824"/>
+        <c:axId val="62359040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75772288"/>
+        <c:crossAx val="62357504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nFxx Fräs Kontur Standardab.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21976377952755904"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nFxxFräs!$D$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardab.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>nFxxFräs!$E$5:$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nFxxFräs!$E$27:$N$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27653637811516296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23988154971722386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12647030023727018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4899799195977301E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2606102108912703E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4809802816416617E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.881885347805227E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2016093147388629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19285664160335861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21902355076446389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="82243968"/>
-        <c:axId val="82245504"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="82243968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82245504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="82245504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82243968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3153,1014 +3535,594 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nFxx Kontur Standardab.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
     <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2155131924298963E-2"/>
+          <c:y val="6.2231960135417867E-2"/>
+          <c:w val="0.7669473684210526"/>
+          <c:h val="0.91418342272433339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]nFxxKonturAussen!$C$31</c:f>
+              <c:f>VerzugVorherProzess!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standardab</c:v>
+                  <c:v>F13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]nFxxKonturAussen!$D$6:$M$6</c:f>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1a</c:v>
+                  <c:v>MP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MP2a</c:v>
+                  <c:v>MP2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MP3a</c:v>
+                  <c:v>MP3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MP4a</c:v>
+                  <c:v>MP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MP5a</c:v>
+                  <c:v>MP5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MP6a</c:v>
+                  <c:v>MP6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MP7a</c:v>
+                  <c:v>MP7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MP8a</c:v>
+                  <c:v>MP8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9a</c:v>
+                  <c:v>MP9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                  <c:v>MP10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]nFxxKonturAussen!$D$31:$M$31</c:f>
+              <c:f>VerzugVorherProzess!$D$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12145932825869225</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6062171674232714E-2</c:v>
+                  <c:v>0.32400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4608937423083801E-2</c:v>
+                  <c:v>-0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8644806282753824E-2</c:v>
+                  <c:v>-0.104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.502104377476887E-2</c:v>
+                  <c:v>-4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.218281792655454E-2</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.98944583661936E-2</c:v>
+                  <c:v>-0.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.11216299880154E-2</c:v>
+                  <c:v>-0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10440180478375191</c:v>
+                  <c:v>-0.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="90720128"/>
-        <c:axId val="92573696"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$34:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60166144"/>
+        <c:axId val="60168448"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="90720128"/>
+        <c:axId val="60166144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36601906340654788"/>
+              <c:y val="0.90198022295183578"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92573696"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" i="1">
+                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60168448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92573696"/>
+        <c:axId val="60168448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Offsetwerte zum Vorprozess [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.1404890178201428E-3"/>
+              <c:y val="0.1261686569621602"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90720128"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" i="1">
+                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60166144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nF17 Fräs Kontur Mittelw.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nF17fräs!$D$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mittlelw.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>nF17fräs!$E$5:$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nF17fräs!$E$26:$N$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.5425000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30550000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11550000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.43900000000000017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.48099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.5625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45549999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9775000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="93954432"/>
-        <c:axId val="93960832"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="93954432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93960832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93960832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93954432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nF17 fräs Kontur Standardab</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nF17fräs!$D$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardab.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>nF17fräs!$E$5:$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nF17fräs!$E$27:$N$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12143332586888554</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15094352377104689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6235601391585134E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1867323637065369E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5526044491233284E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8099592482970492E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3308762874212805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11520576557209559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23059362751956444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21598915664790441</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="94428544"/>
-        <c:axId val="94911104"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="94428544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94911104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94911104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94428544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>F18 fräs Kontur Mittelw</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nF18Fräs!$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mittlelw.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>nF18Fräs!$D$6:$M$6</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nF18Fräs!$D$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.3250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.494</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.1000000000000021E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.34900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.15050000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.31200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.083</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7634999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="95276032"/>
-        <c:axId val="106914944"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="95276032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106914944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="106914944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95276032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nF18 fräs Kontur Standardab</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17102777777777775"/>
-          <c:y val="4.1666666666666664E-2"/>
+          <c:x val="0.30877510705898614"/>
+          <c:y val="0.14339657727285932"/>
+          <c:w val="0.31579182207487233"/>
+          <c:h val="0.20563369877272808"/>
         </c:manualLayout>
       </c:layout>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nF18Fräs!$C$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardab.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>nF18Fräs!$D$6:$M$6</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nF18Fräs!$D$28:$M$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.14475023861447475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15401298646542766</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7141747805092262E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6137289353275334E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.366028258614094E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1884410139143637E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6052030071259679E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14869962658785785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29006532839490162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40218187820672957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="116308992"/>
-        <c:axId val="118330112"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="116308992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118330112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="118330112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116308992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="5"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>nF17 Kontur Mittelw</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]nF17 KonturAussen'!$D$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mittelw.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]nF17 KonturAussen'!$E$5:$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]nF17 KonturAussen'!$E$29:$N$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.4360000000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93500000000000016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.8500000000000022E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.42049999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.51300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.29799999999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.16799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1964999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8364999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="118449664"/>
-        <c:axId val="118507392"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="118449664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118507392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="118507392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118449664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4170,381 +4132,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagramm 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Diagramm 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Diagramm 11"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Diagramm 12"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Diagramm 13"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Diagramm 14"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Diagramm 15"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4566,7 +4163,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4601,360 +4198,69 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Kontur aussen F17Chr1"/>
-      <sheetName val="Spalt vorne unten F17 Charge1"/>
-      <sheetName val="Kontur aussen Fxx Charge2"/>
-      <sheetName val="Spalt vorne unten Fxx Charge2"/>
-      <sheetName val="Kontur aussenF13 Serie"/>
-      <sheetName val="Spalt untenF13 Serie"/>
-      <sheetName val="Relativierung Parameter"/>
-      <sheetName val="F18 Kontur aussen"/>
-      <sheetName val="F18 Spalt unten"/>
-      <sheetName val="nFxxKonturAussen"/>
-      <sheetName val="nFxxSpaltunten"/>
-      <sheetName val="nF17 KonturAussen"/>
-      <sheetName val="nF17 Spalt unten"/>
-      <sheetName val="Gegenüberstellungen"/>
-      <sheetName val="Labor"/>
-      <sheetName val="FehlerVergleich"/>
-      <sheetName val="Überlegungen und Punkte"/>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>MP1a</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>MP2a</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>MP3a</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>MP4a</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>MP5a</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>MP6a</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>MP7a</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>MP8a</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>MP9a</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>MP10a</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>Standardab.</v>
-          </cell>
-          <cell r="E27">
-            <v>5.3437124883263222E-2</v>
-          </cell>
-          <cell r="F27">
-            <v>3.5758694194927144E-2</v>
-          </cell>
-          <cell r="G27">
-            <v>3.5729244987382724E-2</v>
-          </cell>
-          <cell r="H27">
-            <v>4.0249223594996199E-2</v>
-          </cell>
-          <cell r="I27">
-            <v>8.5092828567889578E-2</v>
-          </cell>
-          <cell r="J27">
-            <v>4.0509907819926555E-2</v>
-          </cell>
-          <cell r="K27">
-            <v>2.661123624969116E-2</v>
-          </cell>
-          <cell r="L27">
-            <v>6.3627203715325875E-2</v>
-          </cell>
-          <cell r="M27">
-            <v>0.19771324264143297</v>
-          </cell>
-          <cell r="N27">
-            <v>0.19773453762158261</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>Mittelwert</v>
-          </cell>
-          <cell r="E28">
-            <v>2.5235000000000007</v>
-          </cell>
-          <cell r="F28">
-            <v>0.85550000000000015</v>
-          </cell>
-          <cell r="G28">
-            <v>0.13650000000000001</v>
-          </cell>
-          <cell r="H28">
-            <v>-6.1000000000000019E-2</v>
-          </cell>
-          <cell r="I28">
-            <v>-0.27749999999999997</v>
-          </cell>
-          <cell r="J28">
-            <v>-0.33100000000000002</v>
-          </cell>
-          <cell r="K28">
-            <v>-0.25649999999999995</v>
-          </cell>
-          <cell r="L28">
-            <v>-0.11200000000000002</v>
-          </cell>
-          <cell r="M28">
-            <v>1.2879999999999998</v>
-          </cell>
-          <cell r="N28">
-            <v>3.8039999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>MP1a</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>MP2a</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>MP3a</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>MP4a</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>MP5a</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>MP6a</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>MP7a</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>MP8a</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>MP9a</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>MP10a</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Mittelw</v>
-          </cell>
-          <cell r="D30">
-            <v>0.81049999999999989</v>
-          </cell>
-          <cell r="E30">
-            <v>0.32800000000000001</v>
-          </cell>
-          <cell r="F30">
-            <v>-0.13750000000000001</v>
-          </cell>
-          <cell r="G30">
-            <v>-2.1500000000000009E-2</v>
-          </cell>
-          <cell r="H30">
-            <v>-0.26750000000000002</v>
-          </cell>
-          <cell r="I30">
-            <v>-0.3745</v>
-          </cell>
-          <cell r="J30">
-            <v>-0.28700000000000003</v>
-          </cell>
-          <cell r="K30">
-            <v>-0.42800000000000005</v>
-          </cell>
-          <cell r="L30">
-            <v>0.63150000000000006</v>
-          </cell>
-          <cell r="M30">
-            <v>1.1855</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Standardab</v>
-          </cell>
-          <cell r="D31">
-            <v>0.12145932825869225</v>
-          </cell>
-          <cell r="E31">
-            <v>6.6062171674232714E-2</v>
-          </cell>
-          <cell r="F31">
-            <v>0.1583093241261018</v>
-          </cell>
-          <cell r="G31">
-            <v>1.4608937423083801E-2</v>
-          </cell>
-          <cell r="H31">
-            <v>3.8644806282753824E-2</v>
-          </cell>
-          <cell r="I31">
-            <v>2.502104377476887E-2</v>
-          </cell>
-          <cell r="J31">
-            <v>1.218281792655454E-2</v>
-          </cell>
-          <cell r="K31">
-            <v>1.98944583661936E-2</v>
-          </cell>
-          <cell r="L31">
-            <v>5.11216299880154E-2</v>
-          </cell>
-          <cell r="M31">
-            <v>0.10440180478375191</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>MP1a</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>MP2a</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>MP3a</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>MP4a</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>MP5a</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>MP6a</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>MP7a</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>MP8a</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>MP9a</v>
-          </cell>
-          <cell r="N5" t="str">
-            <v>MP10a</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>Mittelw.</v>
-          </cell>
-          <cell r="E29">
-            <v>2.4360000000000008</v>
-          </cell>
-          <cell r="F29">
-            <v>0.93500000000000016</v>
-          </cell>
-          <cell r="G29">
-            <v>0.21500000000000002</v>
-          </cell>
-          <cell r="H29">
-            <v>-4.8500000000000022E-2</v>
-          </cell>
-          <cell r="I29">
-            <v>-0.42049999999999998</v>
-          </cell>
-          <cell r="J29">
-            <v>-0.51300000000000001</v>
-          </cell>
-          <cell r="K29">
-            <v>-0.29799999999999993</v>
-          </cell>
-          <cell r="L29">
-            <v>-0.16799999999999998</v>
-          </cell>
-          <cell r="M29">
-            <v>1.1964999999999999</v>
-          </cell>
-          <cell r="N29">
-            <v>2.8364999999999996</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>Standardab.</v>
-          </cell>
-          <cell r="E30">
-            <v>0.15118479455705683</v>
-          </cell>
-          <cell r="F30">
-            <v>3.7766596212438205E-2</v>
-          </cell>
-          <cell r="G30">
-            <v>3.3324560249003474E-2</v>
-          </cell>
-          <cell r="H30">
-            <v>9.3330200448672081E-3</v>
-          </cell>
-          <cell r="I30">
-            <v>1.6693837501494849E-2</v>
-          </cell>
-          <cell r="J30">
-            <v>1.922169826551564E-2</v>
-          </cell>
-          <cell r="K30">
-            <v>1.5423836644690757E-2</v>
-          </cell>
-          <cell r="L30">
-            <v>2.5874189537269287E-2</v>
-          </cell>
-          <cell r="M30">
-            <v>5.6501047964198518E-2</v>
-          </cell>
-          <cell r="N30">
-            <v>0.10868956275849763</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5284,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5295,7 +4601,7 @@
         <v>0.46733820729745601</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
@@ -6246,10 +5552,10 @@
       <c r="K30">
         <v>1.4E-2</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="26">
         <v>0.1</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="26">
         <v>0.1</v>
       </c>
       <c r="N30">
@@ -6258,7 +5564,7 @@
     </row>
     <row r="31" spans="4:14" ht="15.75">
       <c r="D31" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1">
         <v>1.27</v>
@@ -6272,7 +5578,7 @@
       <c r="H31" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="25">
         <v>-0.34</v>
       </c>
       <c r="J31" s="1">
@@ -6287,12 +5593,12 @@
       <c r="M31" s="1">
         <v>-0.01</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="4:14">
-      <c r="D32" s="18"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="54" spans="4:13" ht="18.75">
       <c r="G54" s="5" t="s">
@@ -7160,7 +6466,7 @@
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="4:12">
-      <c r="D82" s="18"/>
+      <c r="D82" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7172,8 +6478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:N31"/>
+    <sheetView topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8141,7 +7447,7 @@
     </row>
     <row r="31" spans="4:14" ht="15.75">
       <c r="D31" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>2.54</v>
@@ -8175,7 +7481,7 @@
       </c>
     </row>
     <row r="32" spans="4:14">
-      <c r="D32" s="18"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="104" spans="4:13" ht="18.75">
       <c r="G104" s="5" t="s">
@@ -9042,7 +8348,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:M32"/>
+      <selection activeCell="D28" sqref="D28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10011,7 +9317,7 @@
     </row>
     <row r="32" spans="3:13" ht="15.75">
       <c r="C32" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>4.33</v>
@@ -10045,7 +9351,7 @@
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="18"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="75" spans="4:13" ht="18.75">
       <c r="G75" s="5" t="s">
@@ -10868,202 +10174,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G24:N24"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="24" spans="7:14" ht="31.5">
-      <c r="G24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="3:13" ht="23.25">
-      <c r="E2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="4" spans="3:13">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>0.27653637811516296</v>
-      </c>
-      <c r="E5">
-        <v>0.23988154971722386</v>
-      </c>
-      <c r="F5">
-        <v>0.12647030023727018</v>
-      </c>
-      <c r="G5">
-        <v>2.4899799195977301E-2</v>
-      </c>
-      <c r="H5">
-        <v>3.260610210891271E-2</v>
-      </c>
-      <c r="I5">
-        <v>2.4809802816417564E-2</v>
-      </c>
-      <c r="J5">
-        <v>2.881885347805227E-2</v>
-      </c>
-      <c r="K5">
-        <v>0.2016093147388629</v>
-      </c>
-      <c r="L5">
-        <v>0.19285664160335861</v>
-      </c>
-      <c r="M5">
-        <v>0.21902355076446389</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13">
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>0.12143332586888243</v>
-      </c>
-      <c r="E6">
-        <v>0.15094352377104689</v>
-      </c>
-      <c r="F6">
-        <v>8.6235601391585134E-2</v>
-      </c>
-      <c r="G6">
-        <v>3.1867323637065369E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.5526044491230367E-2</v>
-      </c>
-      <c r="I6">
-        <v>3.8099592482970748E-2</v>
-      </c>
-      <c r="J6">
-        <v>3.3308762874212805E-2</v>
-      </c>
-      <c r="K6">
-        <v>0.11520576557209559</v>
-      </c>
-      <c r="L6">
-        <v>0.23059362751956444</v>
-      </c>
-      <c r="M6">
-        <v>0.21598915664790441</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>0.14475023861447461</v>
-      </c>
-      <c r="E7">
-        <v>0.15401298646542738</v>
-      </c>
-      <c r="F7">
-        <v>8.7141747805092262E-2</v>
-      </c>
-      <c r="G7">
-        <v>2.6137289353275334E-2</v>
-      </c>
-      <c r="H7">
-        <v>6.366028258614094E-2</v>
-      </c>
-      <c r="I7">
-        <v>7.1884410139143637E-2</v>
-      </c>
-      <c r="J7">
-        <v>4.6052030071259679E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.14869962658785785</v>
-      </c>
-      <c r="L7">
-        <v>0.29006532839490162</v>
-      </c>
-      <c r="M7">
-        <v>0.40218187820672957</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:M29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11075,42 +10189,42 @@
     </row>
     <row r="3" spans="1:13" ht="18.75">
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11815,249 +10929,249 @@
       </c>
     </row>
     <row r="25" spans="3:13" ht="15.75">
-      <c r="C25" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="C25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="18">
         <f>SUBTOTAL(101,D5:D24)</f>
         <v>0.12600000000000003</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="18">
         <f t="shared" ref="E25:M25" si="0">SUBTOTAL(101,E5:E24)</f>
         <v>0.375</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="18">
         <f t="shared" si="0"/>
         <v>-0.10950000000000001</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="18">
         <f t="shared" si="0"/>
         <v>-7.4000000000000024E-2</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>-0.23100000000000004</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="18">
         <f t="shared" si="0"/>
         <v>-0.27350000000000008</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="18">
         <f t="shared" si="0"/>
         <v>-0.23149999999999998</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="18">
         <f t="shared" si="0"/>
         <v>-1.0625</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="18">
         <f t="shared" si="0"/>
         <v>-0.37600000000000006</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="18">
         <f t="shared" si="0"/>
         <v>-0.42899999999999999</v>
       </c>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="18">
         <f>STDEV(D5:D24)</f>
         <v>0.24575126492151839</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="18">
         <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
         <v>0.27095348212134901</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="18">
         <f t="shared" si="1"/>
         <v>0.19027611515899726</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="18">
         <f t="shared" si="1"/>
         <v>1.9841477024816312E-2</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="18">
         <f t="shared" si="1"/>
         <v>2.3597502097958335E-2</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="18">
         <f t="shared" si="1"/>
         <v>2.8335397241649171E-2</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="18">
         <f t="shared" si="1"/>
         <v>3.1834274809261667E-2</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="18">
         <f t="shared" si="1"/>
         <v>0.14628289103831021</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="18">
         <f t="shared" si="1"/>
         <v>0.26684117097313848</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="18">
         <f t="shared" si="1"/>
         <v>0.18101759146848873</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="15.75">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="18">
         <f>D26*$A$1</f>
         <v>0.11484895558950459</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="18">
         <f t="shared" ref="E27:M27" si="2">E26*$A$1</f>
         <v>0.12662691459559455</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="18">
         <f t="shared" si="2"/>
         <v>8.8923298549930072E-2</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="18">
         <f t="shared" si="2"/>
         <v>9.272680302911316E-3</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="18">
         <f t="shared" si="2"/>
         <v>1.1028014327157805E-2</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="18">
         <f t="shared" si="2"/>
         <v>1.3242213749973603E-2</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="18">
         <f t="shared" si="2"/>
         <v>1.487737291997491E-2</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="18">
         <f t="shared" si="2"/>
         <v>6.8363584056132992E-2</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="18">
         <f t="shared" si="2"/>
         <v>0.12470507447574049</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="18">
         <f t="shared" si="2"/>
         <v>8.4596436686186785E-2</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="15.75">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="18">
         <v>0.12</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="18">
         <v>0.13</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="18">
         <v>0.09</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="27">
         <v>0.01</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="18">
         <v>1.2E-2</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="18">
         <v>1.4E-2</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="18">
         <v>0.13</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="18">
         <v>0.09</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="15.75">
-      <c r="C29" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="C29" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="18">
         <v>0.13</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="18">
         <v>0.38</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="18">
         <v>-0.12</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="18">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="18">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="18">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="18">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="18">
         <v>-1.06</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="18">
         <v>-0.38</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="18">
         <v>-0.43</v>
       </c>
     </row>
     <row r="65" spans="3:13" ht="18.75">
       <c r="F65" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="3:13">
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="G66" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="H66" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="I66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="J66" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="K66" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="L66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J66" s="29" t="s">
+      <c r="M66" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="K66" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L66" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M66" s="29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="67" spans="3:13">
@@ -12761,91 +11875,91 @@
       </c>
     </row>
     <row r="87" spans="3:13">
-      <c r="C87" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="23">
+      <c r="C87" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="18">
         <f>SUBTOTAL(101,D67:D86)</f>
         <v>-2.0324999999999998</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="18">
         <f t="shared" ref="E87:M87" si="3">SUBTOTAL(101,E67:E86)</f>
         <v>-2.2794999999999996</v>
       </c>
-      <c r="F87" s="23">
+      <c r="F87" s="18">
         <f t="shared" si="3"/>
         <v>-2.4394999999999998</v>
       </c>
-      <c r="G87" s="23">
+      <c r="G87" s="18">
         <f t="shared" si="3"/>
         <v>-2.7894999999999994</v>
       </c>
-      <c r="H87" s="23">
+      <c r="H87" s="18">
         <f t="shared" si="3"/>
         <v>-2.8920000000000003</v>
       </c>
-      <c r="I87" s="23">
+      <c r="I87" s="18">
         <f t="shared" si="3"/>
         <v>-2.5609999999999995</v>
       </c>
-      <c r="J87" s="23">
+      <c r="J87" s="18">
         <f t="shared" si="3"/>
         <v>-2.5659999999999998</v>
       </c>
-      <c r="K87" s="23">
+      <c r="K87" s="18">
         <f t="shared" si="3"/>
         <v>-2.452</v>
       </c>
-      <c r="L87" s="23">
+      <c r="L87" s="18">
         <f t="shared" si="3"/>
         <v>-2.35</v>
       </c>
-      <c r="M87" s="23">
+      <c r="M87" s="18">
         <f t="shared" si="3"/>
         <v>-2.3449999999999998</v>
       </c>
     </row>
     <row r="88" spans="3:13">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="18">
         <f>STDEV(D67:D86)</f>
         <v>6.0946482131539387E-2</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="18">
         <f t="shared" ref="E88:M88" si="4">STDEV(E67:E86)</f>
         <v>3.1030545223087909E-2</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F88" s="18">
         <f t="shared" si="4"/>
         <v>0.10328677502341665</v>
       </c>
-      <c r="G88" s="23">
+      <c r="G88" s="18">
         <f t="shared" si="4"/>
         <v>0.11459195342378087</v>
       </c>
-      <c r="H88" s="23">
+      <c r="H88" s="18">
         <f t="shared" si="4"/>
         <v>0.15129615433244911</v>
       </c>
-      <c r="I88" s="23">
+      <c r="I88" s="18">
         <f t="shared" si="4"/>
         <v>0.22393373079881165</v>
       </c>
-      <c r="J88" s="23">
+      <c r="J88" s="18">
         <f t="shared" si="4"/>
         <v>0.16655645478809758</v>
       </c>
-      <c r="K88" s="23">
+      <c r="K88" s="18">
         <f t="shared" si="4"/>
         <v>5.0638034384395278E-2</v>
       </c>
-      <c r="L88" s="23">
+      <c r="L88" s="18">
         <f t="shared" si="4"/>
         <v>0.14245959722709395</v>
       </c>
-      <c r="M88" s="23">
+      <c r="M88" s="18">
         <f t="shared" si="4"/>
         <v>6.3287148441812893E-2</v>
       </c>
@@ -12860,12 +11974,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:Y43"/>
+  <dimension ref="C4:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22:Y22"/>
+    <sheetView topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12874,77 +11988,77 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" ht="18.75">
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="S4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25">
+      <c r="C5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="S4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="3:25">
-      <c r="C5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="F5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="H5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="I5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="J5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="K5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="L5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="M5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="26" t="s">
+      <c r="O5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="U5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="W5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="X5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="Y5" s="3" t="s">
@@ -12953,7 +12067,7 @@
     </row>
     <row r="6" spans="3:25">
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>0.24575126492151839</v>
@@ -12986,36 +12100,36 @@
         <v>0.18101759146848873</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="33">
+        <v>50</v>
+      </c>
+      <c r="P6" s="28">
         <v>0.12</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="29">
         <v>0.13</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="29">
         <v>0.09</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="30">
         <v>0.01</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="29">
         <v>1.2E-2</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="29">
         <v>1.4E-2</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X6" s="34">
+      <c r="X6" s="29">
         <v>0.13</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="Y6" s="31">
         <v>0.09</v>
       </c>
     </row>
@@ -13054,42 +12168,42 @@
         <v>0.21902355076446389</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="37">
+        <v>49</v>
+      </c>
+      <c r="P7" s="32">
         <v>0.13</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="33">
         <v>0.38</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="33">
         <v>-0.12</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="33">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7" s="33">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="33">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="33">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="W7" s="38">
+      <c r="W7" s="33">
         <v>-1.06</v>
       </c>
-      <c r="X7" s="38">
+      <c r="X7" s="33">
         <v>-0.38</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="34">
         <v>-0.43</v>
       </c>
     </row>
     <row r="8" spans="3:25">
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>0.12143332586888554</v>
@@ -13122,7 +12236,7 @@
         <v>0.21598915664790441</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P8" s="1">
         <v>0.13</v>
@@ -13145,10 +12259,10 @@
       <c r="V8" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="26">
         <v>0.1</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="26">
         <v>0.1</v>
       </c>
       <c r="Y8" s="1">
@@ -13157,7 +12271,7 @@
     </row>
     <row r="9" spans="3:25">
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>0.14475023861447475</v>
@@ -13190,7 +12304,7 @@
         <v>0.40218187820672957</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P9" s="1">
         <v>1.27</v>
@@ -13204,7 +12318,7 @@
       <c r="S9" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="25">
         <v>-0.34</v>
       </c>
       <c r="U9" s="1">
@@ -13219,16 +12333,16 @@
       <c r="X9" s="1">
         <v>-0.01</v>
       </c>
-      <c r="Y9" s="31">
+      <c r="Y9" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="3:25">
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P10" s="1">
         <v>0.06</v>
@@ -13263,7 +12377,7 @@
     </row>
     <row r="11" spans="3:25">
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>0.246</v>
@@ -13271,10 +12385,10 @@
       <c r="E11">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="25">
         <v>0.19</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="25">
         <v>0.02</v>
       </c>
       <c r="H11" s="1">
@@ -13296,7 +12410,7 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P11" s="1">
         <v>2.54</v>
@@ -13336,7 +12450,7 @@
       <c r="D12">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="25">
         <v>0.24</v>
       </c>
       <c r="F12">
@@ -13399,7 +12513,7 @@
     </row>
     <row r="13" spans="3:25">
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>0.121</v>
@@ -13432,7 +12546,7 @@
         <v>0.216</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P13" s="1">
         <v>4.33</v>
@@ -13467,7 +12581,7 @@
     </row>
     <row r="14" spans="3:25">
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>0.14499999999999999</v>
@@ -13493,7 +12607,7 @@
       <c r="K14">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="25">
         <v>0.28999999999999998</v>
       </c>
       <c r="M14">
@@ -13502,79 +12616,79 @@
     </row>
     <row r="17" spans="5:25">
       <c r="S17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="5:25">
-      <c r="O18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="26" t="s">
+      <c r="O18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="T18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="U18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="26" t="s">
+      <c r="V18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="26" t="s">
+      <c r="W18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="26" t="s">
+      <c r="X18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="V18" s="26" t="s">
+      <c r="Y18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="W18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="X18" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="5:25">
       <c r="O19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="37">
+        <v>31</v>
+      </c>
+      <c r="P19" s="32">
         <v>0.13</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="33">
         <v>0.38</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="33">
         <v>-0.12</v>
       </c>
-      <c r="S19" s="38">
+      <c r="S19" s="33">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="T19" s="38">
+      <c r="T19" s="33">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="33">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="33">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="W19" s="38">
+      <c r="W19" s="33">
         <v>-1.06</v>
       </c>
-      <c r="X19" s="38">
+      <c r="X19" s="33">
         <v>-0.38</v>
       </c>
-      <c r="Y19" s="39">
+      <c r="Y19" s="34">
         <v>-0.43</v>
       </c>
     </row>
@@ -13594,7 +12708,7 @@
       <c r="S20" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="25">
         <v>-0.34</v>
       </c>
       <c r="U20" s="1">
@@ -13609,13 +12723,13 @@
       <c r="X20" s="1">
         <v>-0.01</v>
       </c>
-      <c r="Y20" s="31">
+      <c r="Y20" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="5:25">
       <c r="O21" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P21" s="1">
         <v>2.54</v>
@@ -13650,7 +12764,7 @@
     </row>
     <row r="22" spans="5:25">
       <c r="O22" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P22" s="1">
         <v>4.33</v>
@@ -13685,24 +12799,337 @@
     </row>
     <row r="25" spans="5:25">
       <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="23:23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23">
       <c r="W43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23">
+      <c r="E48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14">
+      <c r="D49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49">
+        <v>0.12600000000000003</v>
+      </c>
+      <c r="F49">
+        <v>0.375</v>
+      </c>
+      <c r="G49">
+        <v>-0.10950000000000001</v>
+      </c>
+      <c r="H49">
+        <v>-7.4000000000000024E-2</v>
+      </c>
+      <c r="I49">
+        <v>-0.23100000000000004</v>
+      </c>
+      <c r="J49">
+        <v>-0.27350000000000008</v>
+      </c>
+      <c r="K49">
+        <v>-0.23149999999999998</v>
+      </c>
+      <c r="L49">
+        <v>-1.0625</v>
+      </c>
+      <c r="M49">
+        <v>-0.37600000000000006</v>
+      </c>
+      <c r="N49">
+        <v>-0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14">
+      <c r="D50" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="E50">
+        <v>1.2725000000000002</v>
+      </c>
+      <c r="F50">
+        <v>0.6180000000000001</v>
+      </c>
+      <c r="G50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H50">
+        <v>-0.10100000000000002</v>
+      </c>
+      <c r="I50">
+        <v>-0.33999999999999997</v>
+      </c>
+      <c r="J50">
+        <v>-0.39549999999999996</v>
+      </c>
+      <c r="K50">
+        <v>-0.25100000000000006</v>
+      </c>
+      <c r="L50">
+        <v>-0.83599999999999997</v>
+      </c>
+      <c r="M50">
+        <v>-1.3999999999999995E-2</v>
+      </c>
+      <c r="N50">
+        <v>0.7034999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14">
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>2.5425000000000004</v>
+      </c>
+      <c r="F51">
+        <v>1.1055000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.30550000000000005</v>
+      </c>
+      <c r="H51">
+        <v>-0.11550000000000002</v>
+      </c>
+      <c r="I51">
+        <v>-0.43900000000000017</v>
+      </c>
+      <c r="J51">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="K51">
+        <v>-0.23399999999999999</v>
+      </c>
+      <c r="L51">
+        <v>-0.5625</v>
+      </c>
+      <c r="M51">
+        <v>0.45549999999999996</v>
+      </c>
+      <c r="N51">
+        <v>1.9775000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14">
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="F52">
+        <v>1.494</v>
+      </c>
+      <c r="G52">
+        <v>0.43600000000000005</v>
+      </c>
+      <c r="H52">
+        <v>-7.1000000000000021E-2</v>
+      </c>
+      <c r="I52">
+        <v>-0.37</v>
+      </c>
+      <c r="J52">
+        <v>-0.34900000000000003</v>
+      </c>
+      <c r="K52">
+        <v>-0.15050000000000002</v>
+      </c>
+      <c r="L52">
+        <v>-0.31200000000000006</v>
+      </c>
+      <c r="M52">
+        <v>1.083</v>
+      </c>
+      <c r="N52">
+        <v>3.7634999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14">
+      <c r="D60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>0.24575126492151839</v>
+      </c>
+      <c r="F60">
+        <v>0.27095348212134901</v>
+      </c>
+      <c r="G60">
+        <v>0.19027611515899726</v>
+      </c>
+      <c r="H60">
+        <v>1.9841477024816312E-2</v>
+      </c>
+      <c r="I60">
+        <v>2.3597502097958335E-2</v>
+      </c>
+      <c r="J60">
+        <v>2.8335397241649171E-2</v>
+      </c>
+      <c r="K60">
+        <v>3.1834274809261667E-2</v>
+      </c>
+      <c r="L60">
+        <v>0.14628289103831021</v>
+      </c>
+      <c r="M60">
+        <v>0.26684117097313848</v>
+      </c>
+      <c r="N60">
+        <v>0.18101759146848873</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14">
+      <c r="D61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>0.27653637811516296</v>
+      </c>
+      <c r="F61">
+        <v>0.23988154971722386</v>
+      </c>
+      <c r="G61">
+        <v>0.12647030023727018</v>
+      </c>
+      <c r="H61">
+        <v>2.4899799195977301E-2</v>
+      </c>
+      <c r="I61">
+        <v>3.2606102108912703E-2</v>
+      </c>
+      <c r="J61">
+        <v>2.4809802816416617E-2</v>
+      </c>
+      <c r="K61">
+        <v>2.881885347805227E-2</v>
+      </c>
+      <c r="L61">
+        <v>0.2016093147388629</v>
+      </c>
+      <c r="M61">
+        <v>0.19285664160335861</v>
+      </c>
+      <c r="N61">
+        <v>0.21902355076446389</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14">
+      <c r="D62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>0.12143332586888554</v>
+      </c>
+      <c r="F62">
+        <v>0.15094352377104689</v>
+      </c>
+      <c r="G62">
+        <v>8.6235601391585134E-2</v>
+      </c>
+      <c r="H62">
+        <v>3.1867323637065369E-2</v>
+      </c>
+      <c r="I62">
+        <v>2.5526044491233284E-2</v>
+      </c>
+      <c r="J62">
+        <v>3.8099592482970492E-2</v>
+      </c>
+      <c r="K62">
+        <v>3.3308762874212805E-2</v>
+      </c>
+      <c r="L62">
+        <v>0.11520576557209559</v>
+      </c>
+      <c r="M62">
+        <v>0.23059362751956444</v>
+      </c>
+      <c r="N62">
+        <v>0.21598915664790441</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14">
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63">
+        <v>0.14475023861447475</v>
+      </c>
+      <c r="F63">
+        <v>0.15401298646542766</v>
+      </c>
+      <c r="G63">
+        <v>8.7141747805092262E-2</v>
+      </c>
+      <c r="H63">
+        <v>2.6137289353275334E-2</v>
+      </c>
+      <c r="I63">
+        <v>6.366028258614094E-2</v>
+      </c>
+      <c r="J63">
+        <v>7.1884410139143637E-2</v>
+      </c>
+      <c r="K63">
+        <v>4.6052030071259679E-2</v>
+      </c>
+      <c r="L63">
+        <v>0.14869962658785785</v>
+      </c>
+      <c r="M63">
+        <v>0.29006532839490162</v>
+      </c>
+      <c r="N63">
+        <v>0.40218187820672957</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -13713,60 +13140,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:M26"/>
+  <dimension ref="B5:M71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="2:13">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>-0.78</v>
@@ -13801,42 +13228,42 @@
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1">
       <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="37">
+        <v>62</v>
+      </c>
+      <c r="D7" s="32">
         <v>0.13</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="33">
         <v>0.38</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="33">
         <v>-0.12</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="33">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="33">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="33">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="33">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="33">
         <v>-1.06</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="33">
         <v>-0.38</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="34">
         <v>-0.43</v>
       </c>
     </row>
     <row r="8" spans="2:13" s="1" customFormat="1">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <f>0.78+0.13</f>
@@ -13881,42 +13308,42 @@
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1">
       <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1">
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M10" s="1">
         <f>AVERAGE(D8:M8)</f>
@@ -13925,10 +13352,10 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>0.81</v>
@@ -13963,7 +13390,7 @@
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1">
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1">
         <v>1.27</v>
@@ -13977,7 +13404,7 @@
       <c r="G12" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="25">
         <v>-0.34</v>
       </c>
       <c r="I12" s="1">
@@ -13992,13 +13419,13 @@
       <c r="L12" s="1">
         <v>-0.01</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1">
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1">
         <f>1.27-0.81</f>
@@ -14043,42 +13470,42 @@
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1">
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1">
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M15" s="1">
         <f>AVERAGE(D13:M13)</f>
@@ -14087,7 +13514,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -14125,7 +13552,7 @@
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1">
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>2.54</v>
@@ -14160,7 +13587,7 @@
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1">
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1">
         <f>2.54-2.44</f>
@@ -14205,42 +13632,42 @@
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1">
       <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1">
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M20" s="1">
         <f>AVERAGE(D18:M18)</f>
@@ -14249,7 +13676,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -14287,7 +13714,7 @@
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1">
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>4.33</v>
@@ -14322,7 +13749,7 @@
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1">
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1">
         <f>4.33-2.524</f>
@@ -14367,42 +13794,42 @@
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1">
       <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M25">
         <f>AVERAGE(D23:M23)</f>
@@ -14411,8 +13838,1131 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>0.91</v>
+      </c>
+      <c r="E31">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.21</v>
+      </c>
+      <c r="G31">
+        <v>-0.06</v>
+      </c>
+      <c r="H31">
+        <v>-0.104</v>
+      </c>
+      <c r="I31">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="J31">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K31">
+        <v>-0.33</v>
+      </c>
+      <c r="L31">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="M31">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>0.46</v>
+      </c>
+      <c r="E32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.17</v>
+      </c>
+      <c r="G32">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="H32">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="I32">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J32">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K32">
+        <v>-0.41</v>
+      </c>
+      <c r="L32">
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="M32">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F33">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="H33">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="I33">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J33">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K33">
+        <v>-0.39</v>
+      </c>
+      <c r="L33">
+        <v>-0.73699999999999999</v>
+      </c>
+      <c r="M33">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1.806</v>
+      </c>
+      <c r="E34">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.313</v>
+      </c>
+      <c r="G34">
+        <v>-0.01</v>
+      </c>
+      <c r="H34">
+        <v>-0.09</v>
+      </c>
+      <c r="I34">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>-0.2</v>
+      </c>
+      <c r="L34">
+        <v>-0.22</v>
+      </c>
+      <c r="M34">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>0.13</v>
+      </c>
+      <c r="E39">
+        <v>0.38</v>
+      </c>
+      <c r="F39">
+        <v>-0.12</v>
+      </c>
+      <c r="G39">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="H39">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="I39">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="J39">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="K39">
+        <v>-1.06</v>
+      </c>
+      <c r="L39">
+        <v>-0.38</v>
+      </c>
+      <c r="M39">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>1.27</v>
+      </c>
+      <c r="E40">
+        <v>0.62</v>
+      </c>
+      <c r="F40">
+        <v>0.03</v>
+      </c>
+      <c r="G40">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="H40">
+        <v>-0.34</v>
+      </c>
+      <c r="I40">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="J40">
+        <v>-0.251</v>
+      </c>
+      <c r="K40">
+        <v>-0.84</v>
+      </c>
+      <c r="L40">
+        <v>-0.01</v>
+      </c>
+      <c r="M40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>2.54</v>
+      </c>
+      <c r="E41">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.31</v>
+      </c>
+      <c r="G41">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="H41">
+        <v>-0.439</v>
+      </c>
+      <c r="I41">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="J41">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="K41">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L41">
+        <v>0.46</v>
+      </c>
+      <c r="M41">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>4.33</v>
+      </c>
+      <c r="E42">
+        <v>1.49</v>
+      </c>
+      <c r="F42">
+        <v>0.45</v>
+      </c>
+      <c r="G42">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="H42">
+        <v>-0.37</v>
+      </c>
+      <c r="I42">
+        <v>-0.35</v>
+      </c>
+      <c r="J42">
+        <v>-0.151</v>
+      </c>
+      <c r="K42">
+        <v>-0.31</v>
+      </c>
+      <c r="L42">
+        <v>1.08</v>
+      </c>
+      <c r="M42">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1">
+        <f>0.78+0.13</f>
+        <v>0.91</v>
+      </c>
+      <c r="E45" s="1">
+        <f>0.35-0.026</f>
+        <v>0.32399999999999995</v>
+      </c>
+      <c r="F45" s="1">
+        <f>0.33-0.12</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <f>0.265-0.232</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f>0.074-0.014</f>
+        <v>0.06</v>
+      </c>
+      <c r="H47" s="1">
+        <f>0.231-0.127</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="I47" s="1">
+        <f>0.274-0.229</f>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <f>1.06-0.73</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="L47" s="1">
+        <f>0.38+0.209</f>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M47" s="1">
+        <f>0.43-0.2</f>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1">
+        <f>1.27-0.81</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="E49" s="1">
+        <f>0.62-0.33</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F49" s="1">
+        <f>0.03+0.14</f>
+        <v>0.17</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <f>0.287-0.251</f>
+        <v>3.5999999999999976E-2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f>0.34-0.268</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <f>0.396-0.375</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <f>0.84-0.43</f>
+        <v>0.41</v>
+      </c>
+      <c r="L51" s="1">
+        <f>0.632+0.01</f>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="M51" s="1">
+        <f>1.19-0.7</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="1">
+        <f>2.54-2.44</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="E53" s="1">
+        <f>1.11-0.935</f>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="F53" s="1">
+        <f>0.31-0.215</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <f>0.51-0.481</f>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <f>0.3-0.234</f>
+        <v>6.5999999999999975E-2</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f>0.116-0.049</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <f>0.439-0.421</f>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f>0.56-0.17</f>
+        <v>0.39</v>
+      </c>
+      <c r="L55" s="1">
+        <f>1.197-0.46</f>
+        <v>0.7370000000000001</v>
+      </c>
+      <c r="M55" s="1">
+        <f>2.84-1.98</f>
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="D56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="1">
+        <f>4.33-2.524</f>
+        <v>1.806</v>
+      </c>
+      <c r="E57" s="1">
+        <f>1.49-0.856</f>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F57" s="1">
+        <f>0.45-0.137</f>
+        <v>0.313</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <f>0.251-0.151</f>
+        <v>0.1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="D58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f>0.071-0.061</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H59" s="1">
+        <f>0.37-0.28</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <f>0.35-0.331</f>
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <f>0.31-0.11</f>
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="1">
+        <f>1.3-1.08</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="M59" s="1">
+        <f>3.8-3.76</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="D60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" ht="18.75">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.24575126492151839</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.27095348212134901</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.19027611515899726</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.9841477024816312E-2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.3597502097958335E-2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2.8335397241649171E-2</v>
+      </c>
+      <c r="J68" s="1">
+        <v>3.1834274809261667E-2</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.14628289103831021</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.26684117097313848</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.18101759146848873</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.27653637811516296</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.23988154971722386</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.12647030023727018</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2.4899799195977301E-2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3.2606102108912703E-2</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2.4809802816416617E-2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2.881885347805227E-2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.2016093147388629</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.19285664160335861</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.21902355076446389</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.12143332586888554</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.15094352377104689</v>
+      </c>
+      <c r="F70" s="1">
+        <v>8.6235601391585134E-2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3.1867323637065369E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2.5526044491233284E-2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>3.8099592482970492E-2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3.3308762874212805E-2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.11520576557209559</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.23059362751956444</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.21598915664790441</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.14475023861447475</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.15401298646542766</v>
+      </c>
+      <c r="F71" s="1">
+        <v>8.7141747805092262E-2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2.6137289353275334E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>6.366028258614094E-2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>7.1884410139143637E-2</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4.6052030071259679E-2</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.14869962658785785</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.29006532839490162</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.40218187820672957</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
@@ -1529,11 +1529,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56586240"/>
-        <c:axId val="56588544"/>
+        <c:axId val="58744832"/>
+        <c:axId val="58747136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56586240"/>
+        <c:axId val="58744832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,13 +1546,13 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1400" i="1">
-                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" i="1">
-                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Messpunkte</a:t>
@@ -1564,8 +1564,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39289673742238546"/>
-              <c:y val="0.84672855687370263"/>
+              <c:x val="0.39289673742238551"/>
+              <c:y val="0.84672855687370274"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1576,21 +1576,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1200" b="1" i="1">
-                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56588544"/>
+        <c:crossAx val="58747136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56588544"/>
+        <c:axId val="58747136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,14 +1625,14 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1200" b="1" i="1">
-                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56586240"/>
+        <c:crossAx val="58744832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1644,7 +1644,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2800010192900646"/>
+          <c:x val="0.28000101929006466"/>
           <c:y val="0.1104935923867747"/>
           <c:w val="0.38127190411878131"/>
           <c:h val="0.17926056859554321"/>
@@ -1656,7 +1656,7 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1200" b="1" i="1">
-              <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
               <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
@@ -1668,7 +1668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2525,11 +2525,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59848192"/>
-        <c:axId val="59850112"/>
+        <c:axId val="59454976"/>
+        <c:axId val="59456896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59848192"/>
+        <c:axId val="59454976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,14 +2576,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59850112"/>
+        <c:crossAx val="59456896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59850112"/>
+        <c:axId val="59456896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.4000000000000004"/>
@@ -2625,7 +2625,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59848192"/>
+        <c:crossAx val="59454976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2655,8 +2655,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.31301309403363686"/>
           <c:y val="0.10642750373692079"/>
-          <c:w val="0.38106394521913844"/>
-          <c:h val="2.9881778086496596E-2"/>
+          <c:w val="0.3810639452191385"/>
+          <c:h val="2.9881778086496603E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2693,7 +2693,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.720321426596392E-2"/>
-          <c:y val="4.6733663446708366E-2"/>
+          <c:y val="4.6733663446708387E-2"/>
           <c:w val="0.79858276224386049"/>
           <c:h val="0.93507298429801533"/>
         </c:manualLayout>
@@ -3489,31 +3489,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62357504"/>
-        <c:axId val="62359040"/>
+        <c:axId val="61566976"/>
+        <c:axId val="61568512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62357504"/>
+        <c:axId val="61566976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62359040"/>
+        <c:crossAx val="61568512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62359040"/>
+        <c:axId val="61568512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62357504"/>
+        <c:crossAx val="61566976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3526,7 +3526,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3542,8 +3542,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2155131924298963E-2"/>
-          <c:y val="6.2231960135417867E-2"/>
+          <c:x val="8.5663903854123494E-2"/>
+          <c:y val="6.9612110294331286E-2"/>
           <c:w val="0.7669473684210526"/>
           <c:h val="0.91418342272433339"/>
         </c:manualLayout>
@@ -3975,11 +3975,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60166144"/>
-        <c:axId val="60168448"/>
+        <c:axId val="59510784"/>
+        <c:axId val="59513088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60166144"/>
+        <c:axId val="59510784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,13 +3992,13 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1400" i="1">
-                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" i="1">
-                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Messpunkte</a:t>
@@ -4021,22 +4021,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" i="1">
-                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60168448"/>
+        <c:crossAx val="59513088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60168448"/>
+        <c:axId val="59513088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,16 +4049,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1400" i="1">
-                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" i="1">
-                    <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte zum Vorprozess [mm]</a:t>
+                  <a:t>Offsetwerte [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4067,8 +4067,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.1404890178201428E-3"/>
-              <c:y val="0.1261686569621602"/>
+              <c:x val="1.1403646912556983E-2"/>
+              <c:y val="0.25654996077519832"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4087,7 +4087,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60166144"/>
+        <c:crossAx val="59510784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4098,10 +4098,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30877510705898614"/>
+          <c:x val="0.3087751070589862"/>
           <c:y val="0.14339657727285932"/>
-          <c:w val="0.31579182207487233"/>
-          <c:h val="0.20563369877272808"/>
+          <c:w val="0.31579182207487239"/>
+          <c:h val="0.20563369877272811"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -4110,7 +4110,7 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1200" b="1" i="1">
-              <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
               <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
@@ -4122,7 +4122,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11978,8 +11978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView tabSelected="1" topLeftCell="B68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13129,7 +13129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -13144,8 +13144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -1529,11 +1529,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58744832"/>
-        <c:axId val="58747136"/>
+        <c:axId val="60977152"/>
+        <c:axId val="60979456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58744832"/>
+        <c:axId val="60977152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,8 +1564,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39289673742238551"/>
-              <c:y val="0.84672855687370274"/>
+              <c:x val="0.39289673742238557"/>
+              <c:y val="0.84672855687370285"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1583,14 +1583,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58747136"/>
+        <c:crossAx val="60979456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58747136"/>
+        <c:axId val="60979456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1632,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58744832"/>
+        <c:crossAx val="60977152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1644,7 +1644,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28000101929006466"/>
+          <c:x val="0.28000101929006471"/>
           <c:y val="0.1104935923867747"/>
           <c:w val="0.38127190411878131"/>
           <c:h val="0.17926056859554321"/>
@@ -1668,7 +1668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2525,11 +2525,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59454976"/>
-        <c:axId val="59456896"/>
+        <c:axId val="61027840"/>
+        <c:axId val="61029760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59454976"/>
+        <c:axId val="61027840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,14 +2576,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59456896"/>
+        <c:crossAx val="61029760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59456896"/>
+        <c:axId val="61029760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.4000000000000004"/>
@@ -2625,7 +2625,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59454976"/>
+        <c:crossAx val="61027840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2655,8 +2655,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.31301309403363686"/>
           <c:y val="0.10642750373692079"/>
-          <c:w val="0.3810639452191385"/>
-          <c:h val="2.9881778086496603E-2"/>
+          <c:w val="0.38106394521913856"/>
+          <c:h val="2.9881778086496613E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2693,7 +2693,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.720321426596392E-2"/>
-          <c:y val="4.6733663446708387E-2"/>
+          <c:y val="4.6733663446708408E-2"/>
           <c:w val="0.79858276224386049"/>
           <c:h val="0.93507298429801533"/>
         </c:manualLayout>
@@ -3489,31 +3489,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61566976"/>
-        <c:axId val="61568512"/>
+        <c:axId val="63012864"/>
+        <c:axId val="63014400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61566976"/>
+        <c:axId val="63012864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61568512"/>
+        <c:crossAx val="63014400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61568512"/>
+        <c:axId val="63014400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61566976"/>
+        <c:crossAx val="63012864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3526,7 +3526,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3542,8 +3542,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5663903854123494E-2"/>
-          <c:y val="6.9612110294331286E-2"/>
+          <c:x val="8.5663903854123508E-2"/>
+          <c:y val="6.9612110294331314E-2"/>
           <c:w val="0.7669473684210526"/>
           <c:h val="0.91418342272433339"/>
         </c:manualLayout>
@@ -3975,11 +3975,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59510784"/>
-        <c:axId val="59513088"/>
+        <c:axId val="61476864"/>
+        <c:axId val="61479168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59510784"/>
+        <c:axId val="61476864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,14 +4029,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59513088"/>
+        <c:crossAx val="61479168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59513088"/>
+        <c:axId val="61479168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,7 +4058,21 @@
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte [mm]</a:t>
+                  <a:t>Verzug</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>[mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4067,8 +4081,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1403646912556983E-2"/>
-              <c:y val="0.25654996077519832"/>
+              <c:x val="1.1403646912556981E-2"/>
+              <c:y val="0.25654996077519826"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4087,7 +4101,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59510784"/>
+        <c:crossAx val="61476864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4098,10 +4112,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3087751070589862"/>
+          <c:x val="0.30877510705898625"/>
           <c:y val="0.14339657727285932"/>
-          <c:w val="0.31579182207487239"/>
-          <c:h val="0.20563369877272811"/>
+          <c:w val="0.31579182207487244"/>
+          <c:h val="0.20563369877272814"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -4122,7 +4136,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11978,7 +11992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
@@ -13145,7 +13159,7 @@
   <dimension ref="B5:M71"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10920" windowHeight="13620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Vergl.Fäs" sheetId="7" r:id="rId5"/>
     <sheet name="FotosDiagramm" sheetId="8" r:id="rId6"/>
     <sheet name="VerzugVorherProzess" sheetId="9" r:id="rId7"/>
+    <sheet name="standardabzuVorprozess" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="84">
   <si>
     <t>Nr/MP</t>
   </si>
@@ -338,6 +339,21 @@
   <si>
     <t>offset Werte zu Vorprozess</t>
   </si>
+  <si>
+    <t>mit excel gerundet 3stelle</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>StandardabwDiffVorprozess Bieg/Fräs</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +363,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +444,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -639,12 +663,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -675,12 +697,124 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1529,11 +1663,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60977152"/>
-        <c:axId val="60979456"/>
+        <c:axId val="57864960"/>
+        <c:axId val="58139392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60977152"/>
+        <c:axId val="57864960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,8 +1698,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39289673742238557"/>
-              <c:y val="0.84672855687370285"/>
+              <c:x val="0.39289673742238573"/>
+              <c:y val="0.84672855687370341"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1583,14 +1717,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60979456"/>
+        <c:crossAx val="58139392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60979456"/>
+        <c:axId val="58139392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1749,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1632,7 +1765,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60977152"/>
+        <c:crossAx val="57864960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1644,7 +1777,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28000101929006471"/>
+          <c:x val="0.28000101929006482"/>
           <c:y val="0.1104935923867747"/>
           <c:w val="0.38127190411878131"/>
           <c:h val="0.17926056859554321"/>
@@ -1668,7 +1801,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2525,11 +2658,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61027840"/>
-        <c:axId val="61029760"/>
+        <c:axId val="74069120"/>
+        <c:axId val="74569600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61027840"/>
+        <c:axId val="74069120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,14 +2709,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61029760"/>
+        <c:crossAx val="74569600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61029760"/>
+        <c:axId val="74569600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.4000000000000004"/>
@@ -2625,7 +2758,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61027840"/>
+        <c:crossAx val="74069120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2655,8 +2788,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.31301309403363686"/>
           <c:y val="0.10642750373692079"/>
-          <c:w val="0.38106394521913856"/>
-          <c:h val="2.9881778086496613E-2"/>
+          <c:w val="0.38106394521913872"/>
+          <c:h val="2.9881778086496637E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2693,7 +2826,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.720321426596392E-2"/>
-          <c:y val="4.6733663446708408E-2"/>
+          <c:y val="4.6733663446708443E-2"/>
           <c:w val="0.79858276224386049"/>
           <c:h val="0.93507298429801533"/>
         </c:manualLayout>
@@ -3489,31 +3622,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63012864"/>
-        <c:axId val="63014400"/>
+        <c:axId val="56427264"/>
+        <c:axId val="56428800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63012864"/>
+        <c:axId val="56427264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63014400"/>
+        <c:crossAx val="56428800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63014400"/>
+        <c:axId val="56428800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63012864"/>
+        <c:crossAx val="56427264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3526,7 +3659,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3543,7 +3676,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.5663903854123508E-2"/>
-          <c:y val="6.9612110294331314E-2"/>
+          <c:y val="6.961211029433137E-2"/>
           <c:w val="0.7669473684210526"/>
           <c:h val="0.91418342272433339"/>
         </c:manualLayout>
@@ -3975,11 +4108,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61476864"/>
-        <c:axId val="61479168"/>
+        <c:axId val="56455936"/>
+        <c:axId val="56458240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61476864"/>
+        <c:axId val="56455936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,14 +4162,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61479168"/>
+        <c:crossAx val="56458240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61479168"/>
+        <c:axId val="56458240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4214,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1403646912556981E-2"/>
+              <c:x val="1.1403646912556978E-2"/>
               <c:y val="0.25654996077519826"/>
             </c:manualLayout>
           </c:layout>
@@ -4101,7 +4234,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61476864"/>
+        <c:crossAx val="56455936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4112,10 +4245,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30877510705898625"/>
+          <c:x val="0.30877510705898631"/>
           <c:y val="0.14339657727285932"/>
-          <c:w val="0.31579182207487244"/>
-          <c:h val="0.20563369877272814"/>
+          <c:w val="0.31579182207487261"/>
+          <c:h val="0.20563369877272822"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -4136,7 +4269,967 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5663903854123508E-2"/>
+          <c:y val="6.9612110294331397E-2"/>
+          <c:w val="0.7669473684210526"/>
+          <c:h val="0.91418342272433339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$50:$N$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15000000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.122</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.6000000000000022E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$46:$N$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.20800000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0999999999999996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.8999999999999987E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.13600000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.187</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.8999999999999996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.251</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$51:$N$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.15600000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.17399999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.8000000000000004E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18200000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.14200000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.115</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$47:$N$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.9999999999999984E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$52:$N$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11299999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.2999999999999992E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.9999999999999976E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.8000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.900000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.17400000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.107</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$48:$N$48</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$53:$N$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>9.1999999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11799999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0999999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.0999999999999993E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.4999999999999992E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1999999999999971E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.20400000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>standardabzuVorprozess!$E$49:$N$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1000000000000005E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerzugVorherProzess!$D$30:$M$30</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerzugVorherProzess!$D$34:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="57633792"/>
+        <c:axId val="57635968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57633792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36601906340654788"/>
+              <c:y val="0.90198022295183578"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57635968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57635968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Materialverzug  ± ∆s  [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3158032877469262E-2"/>
+              <c:y val="0.21472954257101629"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" i="1">
+                <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57633792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30877510705898631"/>
+          <c:y val="0.14339657727285932"/>
+          <c:w val="0.31579182207487272"/>
+          <c:h val="0.20563369877272827"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4277,8 +5370,103 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C4:M29" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="D5:N25" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="D5:N25"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr/MP"/>
+    <tableColumn id="2" name="MP1a"/>
+    <tableColumn id="3" name="MP2a"/>
+    <tableColumn id="4" name="MP3a"/>
+    <tableColumn id="5" name="MP4a"/>
+    <tableColumn id="6" name="MP5a"/>
+    <tableColumn id="7" name="MP6a"/>
+    <tableColumn id="8" name="MP7a"/>
+    <tableColumn id="9" name="MP8a"/>
+    <tableColumn id="10" name="MP9a"/>
+    <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D5:N25" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="D5:N25"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr/MP"/>
+    <tableColumn id="2" name="MP1a"/>
+    <tableColumn id="3" name="MP2a"/>
+    <tableColumn id="4" name="MP3a"/>
+    <tableColumn id="5" name="MP4a"/>
+    <tableColumn id="6" name="MP5a"/>
+    <tableColumn id="7" name="MP6a"/>
+    <tableColumn id="8" name="MP7a"/>
+    <tableColumn id="9" name="MP8a"/>
+    <tableColumn id="10" name="MP9a"/>
+    <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="C6:M26" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="C6:M26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr/MP"/>
+    <tableColumn id="2" name="MP1a"/>
+    <tableColumn id="3" name="MP2a"/>
+    <tableColumn id="4" name="MP3a"/>
+    <tableColumn id="5" name="MP4a"/>
+    <tableColumn id="6" name="MP5a"/>
+    <tableColumn id="7" name="MP6a"/>
+    <tableColumn id="8" name="MP7a"/>
+    <tableColumn id="9" name="MP8a"/>
+    <tableColumn id="10" name="MP9a"/>
+    <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C4:M29" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="C4:M29"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr/MP"/>
@@ -4293,12 +5481,12 @@
     <tableColumn id="10" name="MP9a"/>
     <tableColumn id="11" name="MP10a"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C66:M88" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C66:M88" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="C66:M88"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Mp/Nr"/>
@@ -4604,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:N27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4614,12 +5802,12 @@
       <c r="A1">
         <v>0.46733820729745601</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4627,37 +5815,37 @@
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5362,7 +6550,7 @@
       </c>
     </row>
     <row r="26" spans="4:14">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26">
@@ -5407,7 +6595,7 @@
       </c>
     </row>
     <row r="27" spans="4:14">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E27">
@@ -5452,7 +6640,7 @@
       </c>
     </row>
     <row r="28" spans="4:14" ht="15.75">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E28">
@@ -5497,7 +6685,7 @@
       </c>
     </row>
     <row r="29" spans="4:14" ht="15.75">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E29">
@@ -5542,7 +6730,7 @@
       </c>
     </row>
     <row r="30" spans="4:14" ht="15.75">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E30">
@@ -5566,10 +6754,10 @@
       <c r="K30">
         <v>1.4E-2</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="24">
         <v>0.1</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="24">
         <v>0.1</v>
       </c>
       <c r="N30">
@@ -5577,7 +6765,7 @@
       </c>
     </row>
     <row r="31" spans="4:14" ht="15.75">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="1">
@@ -5592,7 +6780,7 @@
       <c r="H31" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="23">
         <v>-0.34</v>
       </c>
       <c r="J31" s="1">
@@ -5607,48 +6795,48 @@
       <c r="M31" s="1">
         <v>-0.01</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="24">
         <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="4:14">
-      <c r="D32" s="13"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="54" spans="4:13" ht="18.75">
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="4:13">
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="9" t="s">
+      <c r="M55" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6293,7 +7481,7 @@
       </c>
     </row>
     <row r="76" spans="4:13">
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E76">
@@ -6330,7 +7518,7 @@
       </c>
     </row>
     <row r="77" spans="4:13">
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E77">
@@ -6367,7 +7555,7 @@
       </c>
     </row>
     <row r="78" spans="4:13" ht="15.75">
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E78">
@@ -6404,7 +7592,7 @@
       </c>
     </row>
     <row r="79" spans="4:13" ht="15.75">
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E79">
@@ -6441,7 +7629,7 @@
       </c>
     </row>
     <row r="80" spans="4:13" ht="15.75">
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E80">
@@ -6470,7 +7658,7 @@
       </c>
     </row>
     <row r="81" spans="4:12" ht="15.75">
-      <c r="D81" s="11"/>
+      <c r="D81" s="9"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -6480,11 +7668,14 @@
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="4:12">
-      <c r="D82" s="13"/>
+      <c r="D82" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6492,8 +7683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:N27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6504,43 +7695,43 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7245,7 +8436,7 @@
       </c>
     </row>
     <row r="26" spans="4:14">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26">
@@ -7290,7 +8481,7 @@
       </c>
     </row>
     <row r="27" spans="4:14">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E27">
@@ -7335,7 +8526,7 @@
       </c>
     </row>
     <row r="28" spans="4:14" ht="15.75">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E28">
@@ -7380,7 +8571,7 @@
       </c>
     </row>
     <row r="29" spans="4:14" ht="15.75">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E29">
@@ -7425,7 +8616,7 @@
       </c>
     </row>
     <row r="30" spans="4:14" ht="15.75">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E30">
@@ -7460,7 +8651,7 @@
       </c>
     </row>
     <row r="31" spans="4:14" ht="15.75">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E31">
@@ -7495,43 +8686,43 @@
       </c>
     </row>
     <row r="32" spans="4:14">
-      <c r="D32" s="13"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="104" spans="4:13" ht="18.75">
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="5"/>
+      <c r="H104" s="3"/>
     </row>
     <row r="105" spans="4:13">
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L105" s="8" t="s">
+      <c r="L105" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="M105" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8176,7 +9367,7 @@
       </c>
     </row>
     <row r="126" spans="4:13">
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E126">
@@ -8213,7 +9404,7 @@
       </c>
     </row>
     <row r="127" spans="4:13">
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E127">
@@ -8250,7 +9441,7 @@
       </c>
     </row>
     <row r="128" spans="4:13" ht="15.75">
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E128">
@@ -8287,7 +9478,7 @@
       </c>
     </row>
     <row r="129" spans="4:12" ht="15.75">
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E129">
@@ -8324,7 +9515,7 @@
       </c>
     </row>
     <row r="130" spans="4:12" ht="15.75">
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E130">
@@ -8354,6 +9545,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8361,8 +9555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:M28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8373,44 +9567,44 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9115,7 +10309,7 @@
       </c>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D27">
@@ -9160,7 +10354,7 @@
       </c>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28">
@@ -9205,7 +10399,7 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="15.75">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D29">
@@ -9250,7 +10444,7 @@
       </c>
     </row>
     <row r="30" spans="3:13" ht="15.75">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D30">
@@ -9295,7 +10489,7 @@
       </c>
     </row>
     <row r="31" spans="3:13" ht="15.75">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D31">
@@ -9330,7 +10524,7 @@
       </c>
     </row>
     <row r="32" spans="3:13" ht="15.75">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D32">
@@ -9365,43 +10559,43 @@
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="13"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="75" spans="4:13" ht="18.75">
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H75" s="5"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="4:13">
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="K76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L76" s="8" t="s">
+      <c r="L76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10043,7 +11237,7 @@
       </c>
     </row>
     <row r="97" spans="4:11">
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F97">
@@ -10072,7 +11266,7 @@
       </c>
     </row>
     <row r="98" spans="4:11">
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F98">
@@ -10101,7 +11295,7 @@
       </c>
     </row>
     <row r="99" spans="4:11" ht="15.75">
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F99">
@@ -10130,7 +11324,7 @@
       </c>
     </row>
     <row r="100" spans="4:11" ht="15.75">
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F100">
@@ -10159,7 +11353,7 @@
       </c>
     </row>
     <row r="101" spans="4:11" ht="15.75">
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F101">
@@ -10183,6 +11377,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -10190,8 +11387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10202,43 +11399,43 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75">
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10943,248 +12140,248 @@
       </c>
     </row>
     <row r="25" spans="3:13" ht="15.75">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="16">
         <f>SUBTOTAL(101,D5:D24)</f>
         <v>0.12600000000000003</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <f t="shared" ref="E25:M25" si="0">SUBTOTAL(101,E5:E24)</f>
         <v>0.375</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>-0.10950000000000001</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <f t="shared" si="0"/>
         <v>-7.4000000000000024E-2</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <f t="shared" si="0"/>
         <v>-0.23100000000000004</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="16">
         <f t="shared" si="0"/>
         <v>-0.27350000000000008</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="16">
         <f t="shared" si="0"/>
         <v>-0.23149999999999998</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="16">
         <f t="shared" si="0"/>
         <v>-1.0625</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="16">
         <f t="shared" si="0"/>
         <v>-0.37600000000000006</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="16">
         <f t="shared" si="0"/>
         <v>-0.42899999999999999</v>
       </c>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="16">
         <f>STDEV(D5:D24)</f>
         <v>0.24575126492151839</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
         <v>0.27095348212134901</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <f t="shared" si="1"/>
         <v>0.19027611515899726</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="16">
         <f t="shared" si="1"/>
         <v>1.9841477024816312E-2</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="16">
         <f t="shared" si="1"/>
         <v>2.3597502097958335E-2</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="16">
         <f t="shared" si="1"/>
         <v>2.8335397241649171E-2</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="16">
         <f t="shared" si="1"/>
         <v>3.1834274809261667E-2</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="16">
         <f t="shared" si="1"/>
         <v>0.14628289103831021</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="16">
         <f t="shared" si="1"/>
         <v>0.26684117097313848</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="16">
         <f t="shared" si="1"/>
         <v>0.18101759146848873</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="15.75">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <f>D26*$A$1</f>
         <v>0.11484895558950459</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <f t="shared" ref="E27:M27" si="2">E26*$A$1</f>
         <v>0.12662691459559455</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f t="shared" si="2"/>
         <v>8.8923298549930072E-2</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <f t="shared" si="2"/>
         <v>9.272680302911316E-3</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <f t="shared" si="2"/>
         <v>1.1028014327157805E-2</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="16">
         <f t="shared" si="2"/>
         <v>1.3242213749973603E-2</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="16">
         <f t="shared" si="2"/>
         <v>1.487737291997491E-2</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="16">
         <f t="shared" si="2"/>
         <v>6.8363584056132992E-2</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="16">
         <f t="shared" si="2"/>
         <v>0.12470507447574049</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="16">
         <f t="shared" si="2"/>
         <v>8.4596436686186785E-2</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="15.75">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <v>0.12</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>0.13</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>0.09</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="25">
         <v>0.01</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <v>1.2E-2</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="16">
         <v>1.4E-2</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="16">
         <v>0.13</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="16">
         <v>0.09</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="15.75">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="16">
         <v>0.13</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>0.38</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>-0.12</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="16">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="16">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="16">
         <v>-1.06</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="16">
         <v>-0.38</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="16">
         <v>-0.43</v>
       </c>
     </row>
     <row r="65" spans="3:13" ht="18.75">
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="3:13">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="24" t="s">
+      <c r="I66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="J66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K66" s="24" t="s">
+      <c r="K66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L66" s="24" t="s">
+      <c r="L66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M66" s="24" t="s">
+      <c r="M66" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11889,91 +13086,91 @@
       </c>
     </row>
     <row r="87" spans="3:13">
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="16">
         <f>SUBTOTAL(101,D67:D86)</f>
         <v>-2.0324999999999998</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="16">
         <f t="shared" ref="E87:M87" si="3">SUBTOTAL(101,E67:E86)</f>
         <v>-2.2794999999999996</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="16">
         <f t="shared" si="3"/>
         <v>-2.4394999999999998</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="16">
         <f t="shared" si="3"/>
         <v>-2.7894999999999994</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="16">
         <f t="shared" si="3"/>
         <v>-2.8920000000000003</v>
       </c>
-      <c r="I87" s="18">
+      <c r="I87" s="16">
         <f t="shared" si="3"/>
         <v>-2.5609999999999995</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="16">
         <f t="shared" si="3"/>
         <v>-2.5659999999999998</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K87" s="16">
         <f t="shared" si="3"/>
         <v>-2.452</v>
       </c>
-      <c r="L87" s="18">
+      <c r="L87" s="16">
         <f t="shared" si="3"/>
         <v>-2.35</v>
       </c>
-      <c r="M87" s="18">
+      <c r="M87" s="16">
         <f t="shared" si="3"/>
         <v>-2.3449999999999998</v>
       </c>
     </row>
     <row r="88" spans="3:13">
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="16">
         <f>STDEV(D67:D86)</f>
         <v>6.0946482131539387E-2</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="16">
         <f t="shared" ref="E88:M88" si="4">STDEV(E67:E86)</f>
         <v>3.1030545223087909E-2</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="16">
         <f t="shared" si="4"/>
         <v>0.10328677502341665</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="16">
         <f t="shared" si="4"/>
         <v>0.11459195342378087</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="16">
         <f t="shared" si="4"/>
         <v>0.15129615433244911</v>
       </c>
-      <c r="I88" s="18">
+      <c r="I88" s="16">
         <f t="shared" si="4"/>
         <v>0.22393373079881165</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J88" s="16">
         <f t="shared" si="4"/>
         <v>0.16655645478809758</v>
       </c>
-      <c r="K88" s="18">
+      <c r="K88" s="16">
         <f t="shared" si="4"/>
         <v>5.0638034384395278E-2</v>
       </c>
-      <c r="L88" s="18">
+      <c r="L88" s="16">
         <f t="shared" si="4"/>
         <v>0.14245959722709395</v>
       </c>
-      <c r="M88" s="18">
+      <c r="M88" s="16">
         <f t="shared" si="4"/>
         <v>6.3287148441812893E-2</v>
       </c>
@@ -11992,7 +13189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
@@ -12002,80 +13199,80 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" ht="18.75">
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
       <c r="S4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="3:25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="W5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12116,34 +13313,34 @@
       <c r="O6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <v>0.12</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="27">
         <v>0.13</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="27">
         <v>0.09</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="28">
         <v>0.01</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="27">
         <v>1.2E-2</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="27">
         <v>1.4E-2</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="27">
         <v>0.13</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="29">
         <v>0.09</v>
       </c>
     </row>
@@ -12184,39 +13381,39 @@
       <c r="O7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="30">
         <v>0.13</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="31">
         <v>0.38</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="31">
         <v>-0.12</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="31">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="31">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="31">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="31">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="31">
         <v>-1.06</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="31">
         <v>-0.38</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="32">
         <v>-0.43</v>
       </c>
     </row>
     <row r="8" spans="3:25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D8">
@@ -12273,10 +13470,10 @@
       <c r="V8" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="24">
         <v>0.1</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="24">
         <v>0.1</v>
       </c>
       <c r="Y8" s="1">
@@ -12284,7 +13481,7 @@
       </c>
     </row>
     <row r="9" spans="3:25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D9">
@@ -12317,7 +13514,7 @@
       <c r="M9">
         <v>0.40218187820672957</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="P9" s="1">
@@ -12332,7 +13529,7 @@
       <c r="S9" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="23">
         <v>-0.34</v>
       </c>
       <c r="U9" s="1">
@@ -12347,12 +13544,12 @@
       <c r="X9" s="1">
         <v>-0.01</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="24">
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -12399,10 +13596,10 @@
       <c r="E11">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>0.19</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="23">
         <v>0.02</v>
       </c>
       <c r="H11" s="1">
@@ -12423,7 +13620,7 @@
       <c r="M11" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="P11" s="1">
@@ -12464,7 +13661,7 @@
       <c r="D12">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>0.24</v>
       </c>
       <c r="F12">
@@ -12526,7 +13723,7 @@
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D13">
@@ -12594,7 +13791,7 @@
       </c>
     </row>
     <row r="14" spans="3:25">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D14">
@@ -12621,7 +13818,7 @@
       <c r="K14">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="23">
         <v>0.28999999999999998</v>
       </c>
       <c r="M14">
@@ -12637,37 +13834,37 @@
       </c>
     </row>
     <row r="18" spans="5:25">
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="Q18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="21" t="s">
+      <c r="S18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="21" t="s">
+      <c r="U18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="21" t="s">
+      <c r="V18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="W18" s="21" t="s">
+      <c r="W18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="X18" s="21" t="s">
+      <c r="X18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12675,34 +13872,34 @@
       <c r="O19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="30">
         <v>0.13</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="31">
         <v>0.38</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="31">
         <v>-0.12</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="31">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="31">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="31">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="V19" s="33">
+      <c r="V19" s="31">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="W19" s="33">
+      <c r="W19" s="31">
         <v>-1.06</v>
       </c>
-      <c r="X19" s="33">
+      <c r="X19" s="31">
         <v>-0.38</v>
       </c>
-      <c r="Y19" s="34">
+      <c r="Y19" s="32">
         <v>-0.43</v>
       </c>
     </row>
@@ -12722,7 +13919,7 @@
       <c r="S20" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20" s="23">
         <v>-0.34</v>
       </c>
       <c r="U20" s="1">
@@ -12737,12 +13934,12 @@
       <c r="X20" s="1">
         <v>-0.01</v>
       </c>
-      <c r="Y20" s="26">
+      <c r="Y20" s="24">
         <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="5:25">
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="P21" s="1">
@@ -12777,7 +13974,7 @@
       </c>
     </row>
     <row r="22" spans="5:25">
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="P22" s="1">
@@ -13143,7 +14340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -13156,10 +14353,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:M71"/>
+  <dimension ref="B5:M78"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13244,34 +14441,34 @@
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="30">
         <v>0.13</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>0.38</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <v>-0.12</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>-0.23100000000000001</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>-0.27400000000000002</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="31">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <v>-1.06</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="31">
         <v>-0.38</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="32">
         <v>-0.43</v>
       </c>
     </row>
@@ -13418,7 +14615,7 @@
       <c r="G12" s="1">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>-0.34</v>
       </c>
       <c r="I12" s="1">
@@ -13433,7 +14630,7 @@
       <c r="L12" s="1">
         <v>-0.01</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="24">
         <v>0.7</v>
       </c>
     </row>
@@ -14788,11 +15985,11 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -14800,37 +15997,37 @@
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="3:13">
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="21" t="s">
+      <c r="J67" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K67" s="21" t="s">
+      <c r="K67" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L67" s="21" t="s">
+      <c r="L67" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="M67" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -14905,7 +16102,7 @@
       </c>
     </row>
     <row r="70" spans="3:13">
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="1">
@@ -14940,7 +16137,7 @@
       </c>
     </row>
     <row r="71" spans="3:13">
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="1">
@@ -14972,6 +16169,1268 @@
       </c>
       <c r="M71" s="1">
         <v>0.40218187820672957</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="G74" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <f>ROUND(D68,3)</f>
+        <v>0.246</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" ref="E75:M75" si="0">ROUND(E68,3)</f>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" ref="D76:M78" si="1">ROUND(D69,3)</f>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.126</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.193</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.121</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.151</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.115</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.154</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:N53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="4:14">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>0.24575126492151839</v>
+      </c>
+      <c r="F5">
+        <v>0.27095348212134901</v>
+      </c>
+      <c r="G5">
+        <v>0.19027611515899726</v>
+      </c>
+      <c r="H5">
+        <v>1.9841477024816312E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.3597502097958335E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.8335397241649171E-2</v>
+      </c>
+      <c r="K5">
+        <v>3.1834274809261667E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.14628289103831021</v>
+      </c>
+      <c r="M5">
+        <v>0.26684117097313848</v>
+      </c>
+      <c r="N5">
+        <v>0.18101759146848873</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>0.45378959882306691</v>
+      </c>
+      <c r="F21">
+        <v>0.12130431501849086</v>
+      </c>
+      <c r="G21">
+        <v>6.8092429442401306E-2</v>
+      </c>
+      <c r="H21">
+        <v>5.0770380921826529E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.10287447640079071</v>
+      </c>
+      <c r="J21">
+        <v>0.16392873933190411</v>
+      </c>
+      <c r="K21">
+        <v>0.218855275419505</v>
+      </c>
+      <c r="L21">
+        <v>0.23452303219850071</v>
+      </c>
+      <c r="M21">
+        <v>0.21083792727815212</v>
+      </c>
+      <c r="N21">
+        <v>0.43154678955930992</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>0.12145932825869225</v>
+      </c>
+      <c r="F22">
+        <v>6.6062171674232714E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.7772572611727615E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.4608937423083801E-2</v>
+      </c>
+      <c r="I22">
+        <v>3.8644806282753824E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.5021043774769821E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.218281792655454E-2</v>
+      </c>
+      <c r="L22">
+        <v>1.98944583661936E-2</v>
+      </c>
+      <c r="M22">
+        <v>5.1121629988015636E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.1044018047837549</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>0.15118479455705683</v>
+      </c>
+      <c r="F23">
+        <v>3.7766596212438205E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.3324560249003474E-2</v>
+      </c>
+      <c r="H23">
+        <v>9.3330200448672081E-3</v>
+      </c>
+      <c r="I23">
+        <v>1.6693837501494849E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.922169826551564E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.5423836644690757E-2</v>
+      </c>
+      <c r="L23">
+        <v>2.5874189537269287E-2</v>
+      </c>
+      <c r="M23">
+        <v>5.6501047964198518E-2</v>
+      </c>
+      <c r="N23">
+        <v>0.10868956275849763</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>5.3437124883263222E-2</v>
+      </c>
+      <c r="F24">
+        <v>3.5758694194927144E-2</v>
+      </c>
+      <c r="G24">
+        <v>3.5729244987382724E-2</v>
+      </c>
+      <c r="H24">
+        <v>4.0249223594996199E-2</v>
+      </c>
+      <c r="I24">
+        <v>8.5092828567889578E-2</v>
+      </c>
+      <c r="J24">
+        <v>4.0509907819926555E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.661123624969116E-2</v>
+      </c>
+      <c r="L24">
+        <v>6.3627203715325875E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.19771324264143297</v>
+      </c>
+      <c r="N24">
+        <v>0.19773453762158261</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="15.75">
+      <c r="G33" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <f>ROUND(E21,3)</f>
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:N34" si="0">ROUND(F21,3)</f>
+        <v>0.121</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.219</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:N37" si="1">ROUND(E22,3)</f>
+        <v>0.121</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.151</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38">
+        <v>0.246</v>
+      </c>
+      <c r="F38">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G38">
+        <v>0.19</v>
+      </c>
+      <c r="H38">
+        <v>0.02</v>
+      </c>
+      <c r="I38">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J38">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L38">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="N38">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F39">
+        <v>0.24</v>
+      </c>
+      <c r="G39">
+        <v>0.126</v>
+      </c>
+      <c r="H39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I39">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K39">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L39">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.193</v>
+      </c>
+      <c r="N39">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <v>0.121</v>
+      </c>
+      <c r="F40">
+        <v>0.151</v>
+      </c>
+      <c r="G40">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H40">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I40">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J40">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K40">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L40">
+        <v>0.115</v>
+      </c>
+      <c r="M40">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.154</v>
+      </c>
+      <c r="G41">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H41">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I41">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J41">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K41">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L41">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N41">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <f>E38-E34</f>
+        <v>-0.20800000000000002</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ref="F42:N42" si="2">F38-F34</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.122</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.0999999999999996E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.8999999999999987E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.187</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000022E-2</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.251</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="D43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" ref="E43:N45" si="3">E39-E35</f>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.9999999999999984E-3</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18200000000000002</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.03</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999992E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999976E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="3"/>
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4000000000000002E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.1000000000000005E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0999999999999993E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999971E-2</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20400000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <f>IF(E42&lt;0,ABS(E42),0)</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ref="F46:N46" si="4">IF(F42&lt;0,ABS(F42),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0999999999999996E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="4"/>
+        <v>7.8999999999999987E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.187</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="4"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" ref="E47:N49" si="5">IF(E43&lt;0,ABS(E43),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="5"/>
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1000000000000005E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <f>IF(E42&gt;0,ABS(E42),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" ref="F50:N50" si="6">IF(F42&gt;0,ABS(F42),0)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="6"/>
+        <v>0.122</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="6"/>
+        <v>5.6000000000000022E-2</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ref="E51:N53" si="7">IF(E43&gt;0,ABS(E43),0)</f>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="7"/>
+        <v>0.18200000000000002</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="7"/>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="7"/>
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="7"/>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="7"/>
+        <v>5.2999999999999992E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="7"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="7"/>
+        <v>8.9999999999999976E-3</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="7"/>
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="7"/>
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="7"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="7"/>
+        <v>3.0999999999999993E-2</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="7"/>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999971E-2</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="7"/>
+        <v>0.20400000000000001</v>
       </c>
     </row>
   </sheetData>
